--- a/cgi_geosciml_timescale_merged_master.xlsx
+++ b/cgi_geosciml_timescale_merged_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM.CGI_GEOSCIML_ERML_PREF_" sheetId="1" r:id="rId1"/>
@@ -28069,10 +28069,10 @@
   <dimension ref="A1:AK640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A197" sqref="A197"/>
+      <selection pane="bottomRight" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39220,1404 +39220,2188 @@
       </c>
     </row>
     <row r="213" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>2909</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
         <v>2910</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="3" t="s">
         <v>2911</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="G213" s="3"/>
+      <c r="H213" s="3" t="s">
         <v>2912</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I213" s="3" t="s">
         <v>2913</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="3" t="s">
         <v>2914</v>
       </c>
-      <c r="K213" s="1" t="s">
+      <c r="K213" s="3" t="s">
         <v>2915</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="L213" s="3" t="s">
         <v>2916</v>
       </c>
-      <c r="P213" s="1" t="s">
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3" t="s">
         <v>2917</v>
       </c>
-      <c r="R213" s="1" t="s">
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3" t="s">
         <v>2918</v>
       </c>
-      <c r="S213" s="1" t="s">
+      <c r="S213" s="3" t="s">
         <v>2919</v>
       </c>
-      <c r="Z213" s="1" t="s">
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
+      <c r="Y213" s="3"/>
+      <c r="Z213" s="3" t="s">
         <v>6782</v>
       </c>
-      <c r="AH213" s="1" t="s">
+      <c r="AA213" s="3"/>
+      <c r="AB213" s="3"/>
+      <c r="AC213" s="3"/>
+      <c r="AD213" s="3"/>
+      <c r="AE213" s="3"/>
+      <c r="AF213" s="3"/>
+      <c r="AG213" s="3"/>
+      <c r="AH213" s="3" t="s">
         <v>6783</v>
       </c>
+      <c r="AI213" s="3"/>
+      <c r="AJ213" s="3"/>
+      <c r="AK213" s="3"/>
     </row>
     <row r="214" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="3" t="s">
         <v>2920</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
         <v>2921</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F214" s="3" t="s">
         <v>2922</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="G214" s="3"/>
+      <c r="H214" s="3" t="s">
         <v>2923</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I214" s="3" t="s">
         <v>2924</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="3" t="s">
         <v>2925</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="K214" s="3" t="s">
         <v>2926</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L214" s="3" t="s">
         <v>2927</v>
       </c>
-      <c r="P214" s="1" t="s">
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="R214" s="1" t="s">
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3" t="s">
         <v>2929</v>
       </c>
-      <c r="S214" s="1" t="s">
+      <c r="S214" s="3" t="s">
         <v>2930</v>
       </c>
-      <c r="X214" s="1" t="s">
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3" t="s">
         <v>6784</v>
       </c>
+      <c r="Y214" s="3"/>
+      <c r="Z214" s="3"/>
+      <c r="AA214" s="3"/>
+      <c r="AB214" s="3"/>
+      <c r="AC214" s="3"/>
+      <c r="AD214" s="3"/>
+      <c r="AE214" s="3"/>
+      <c r="AF214" s="3"/>
+      <c r="AG214" s="3"/>
+      <c r="AH214" s="3"/>
+      <c r="AI214" s="3"/>
+      <c r="AJ214" s="3"/>
+      <c r="AK214" s="3"/>
     </row>
     <row r="215" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>2931</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
         <v>2933</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="3" t="s">
         <v>2934</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="3" t="s">
         <v>2935</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F215" s="3" t="s">
         <v>2936</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="3" t="s">
         <v>2937</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H215" s="3" t="s">
         <v>2938</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="I215" s="3" t="s">
         <v>2939</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="3" t="s">
         <v>2940</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="K215" s="3" t="s">
         <v>2941</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="L215" s="3" t="s">
         <v>2936</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="M215" s="3"/>
+      <c r="N215" s="3" t="s">
         <v>2942</v>
       </c>
-      <c r="O215" s="1" t="s">
+      <c r="O215" s="3" t="s">
         <v>2943</v>
       </c>
-      <c r="P215" s="1" t="s">
+      <c r="P215" s="3" t="s">
         <v>2944</v>
       </c>
-      <c r="R215" s="1" t="s">
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3" t="s">
         <v>2945</v>
       </c>
-      <c r="S215" s="1" t="s">
+      <c r="S215" s="3" t="s">
         <v>2946</v>
       </c>
-      <c r="Z215" s="1" t="s">
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
+      <c r="Y215" s="3"/>
+      <c r="Z215" s="3" t="s">
         <v>6785</v>
       </c>
+      <c r="AA215" s="3"/>
+      <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
+      <c r="AD215" s="3"/>
+      <c r="AE215" s="3"/>
+      <c r="AF215" s="3"/>
+      <c r="AG215" s="3"/>
+      <c r="AH215" s="3"/>
+      <c r="AI215" s="3"/>
+      <c r="AJ215" s="3"/>
+      <c r="AK215" s="3"/>
     </row>
     <row r="216" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>2947</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3" t="s">
         <v>2948</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F216" s="3" t="s">
         <v>2949</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="G216" s="3"/>
+      <c r="H216" s="3" t="s">
         <v>2950</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="I216" s="3" t="s">
         <v>2951</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="K216" s="3" t="s">
         <v>2953</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="L216" s="3" t="s">
         <v>2954</v>
       </c>
-      <c r="P216" s="1" t="s">
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3" t="s">
         <v>2955</v>
       </c>
-      <c r="R216" s="1" t="s">
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3" t="s">
         <v>2956</v>
       </c>
-      <c r="S216" s="1" t="s">
+      <c r="S216" s="3" t="s">
         <v>2957</v>
       </c>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
+      <c r="Y216" s="3"/>
+      <c r="Z216" s="3"/>
+      <c r="AA216" s="3"/>
+      <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
+      <c r="AD216" s="3"/>
+      <c r="AE216" s="3"/>
+      <c r="AF216" s="3"/>
+      <c r="AG216" s="3"/>
+      <c r="AH216" s="3"/>
+      <c r="AI216" s="3"/>
+      <c r="AJ216" s="3"/>
+      <c r="AK216" s="3"/>
     </row>
     <row r="217" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>2958</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="3" t="s">
         <v>2959</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="3" t="s">
         <v>2960</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="3" t="s">
         <v>2961</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="3" t="s">
         <v>2962</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F217" s="3" t="s">
         <v>2963</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="3" t="s">
         <v>2964</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H217" s="3" t="s">
         <v>2965</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="I217" s="3" t="s">
         <v>2966</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="3" t="s">
         <v>2967</v>
       </c>
-      <c r="K217" s="1" t="s">
+      <c r="K217" s="3" t="s">
         <v>2968</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="L217" s="3" t="s">
         <v>2969</v>
       </c>
-      <c r="N217" s="1" t="s">
+      <c r="M217" s="3"/>
+      <c r="N217" s="3" t="s">
         <v>2970</v>
       </c>
-      <c r="O217" s="1" t="s">
+      <c r="O217" s="3" t="s">
         <v>2971</v>
       </c>
-      <c r="P217" s="1" t="s">
+      <c r="P217" s="3" t="s">
         <v>2972</v>
       </c>
-      <c r="R217" s="1" t="s">
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="S217" s="1" t="s">
+      <c r="S217" s="3" t="s">
         <v>2974</v>
       </c>
-      <c r="X217" s="1" t="s">
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+      <c r="X217" s="3" t="s">
         <v>6786</v>
       </c>
+      <c r="Y217" s="3"/>
+      <c r="Z217" s="3"/>
+      <c r="AA217" s="3"/>
+      <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
+      <c r="AD217" s="3"/>
+      <c r="AE217" s="3"/>
+      <c r="AF217" s="3"/>
+      <c r="AG217" s="3"/>
+      <c r="AH217" s="3"/>
+      <c r="AI217" s="3"/>
+      <c r="AJ217" s="3"/>
+      <c r="AK217" s="3"/>
     </row>
     <row r="218" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="3" t="s">
         <v>2977</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="3" t="s">
         <v>2978</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3" t="s">
         <v>2979</v>
       </c>
-      <c r="N218" s="1" t="s">
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3" t="s">
         <v>2980</v>
       </c>
-      <c r="O218" s="1" t="s">
+      <c r="O218" s="3" t="s">
         <v>2981</v>
       </c>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+      <c r="X218" s="3"/>
+      <c r="Y218" s="3"/>
+      <c r="Z218" s="3"/>
+      <c r="AA218" s="3"/>
+      <c r="AB218" s="3"/>
+      <c r="AC218" s="3"/>
+      <c r="AD218" s="3"/>
+      <c r="AE218" s="3"/>
+      <c r="AF218" s="3"/>
+      <c r="AG218" s="3"/>
+      <c r="AH218" s="3"/>
+      <c r="AI218" s="3"/>
+      <c r="AJ218" s="3"/>
+      <c r="AK218" s="3"/>
     </row>
     <row r="219" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="3" t="s">
         <v>2982</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="3" t="s">
         <v>2983</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="3" t="s">
         <v>2984</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="3" t="s">
         <v>2985</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="3" t="s">
         <v>2986</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F219" s="3" t="s">
         <v>2987</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="3" t="s">
         <v>2988</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="H219" s="3" t="s">
         <v>2989</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="I219" s="3" t="s">
         <v>2990</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="3" t="s">
         <v>2991</v>
       </c>
-      <c r="K219" s="1" t="s">
+      <c r="K219" s="3" t="s">
         <v>2992</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="L219" s="3" t="s">
         <v>2993</v>
       </c>
-      <c r="N219" s="1" t="s">
+      <c r="M219" s="3"/>
+      <c r="N219" s="3" t="s">
         <v>2994</v>
       </c>
-      <c r="O219" s="1" t="s">
+      <c r="O219" s="3" t="s">
         <v>2995</v>
       </c>
-      <c r="P219" s="1" t="s">
+      <c r="P219" s="3" t="s">
         <v>2996</v>
       </c>
-      <c r="R219" s="1" t="s">
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="S219" s="1" t="s">
+      <c r="S219" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="X219" s="1" t="s">
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3" t="s">
         <v>6787</v>
       </c>
+      <c r="Y219" s="3"/>
+      <c r="Z219" s="3"/>
+      <c r="AA219" s="3"/>
+      <c r="AB219" s="3"/>
+      <c r="AC219" s="3"/>
+      <c r="AD219" s="3"/>
+      <c r="AE219" s="3"/>
+      <c r="AF219" s="3"/>
+      <c r="AG219" s="3"/>
+      <c r="AH219" s="3"/>
+      <c r="AI219" s="3"/>
+      <c r="AJ219" s="3"/>
+      <c r="AK219" s="3"/>
     </row>
     <row r="220" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="3" t="s">
         <v>3000</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="3" t="s">
         <v>3001</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="3" t="s">
         <v>3002</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="3" t="s">
         <v>3003</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F220" s="3" t="s">
         <v>3004</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="3" t="s">
         <v>3005</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="H220" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="I220" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="3" t="s">
         <v>3008</v>
       </c>
-      <c r="K220" s="1" t="s">
+      <c r="K220" s="3" t="s">
         <v>3009</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="L220" s="3" t="s">
         <v>3010</v>
       </c>
-      <c r="N220" s="1" t="s">
+      <c r="M220" s="3"/>
+      <c r="N220" s="3" t="s">
         <v>3011</v>
       </c>
-      <c r="O220" s="1" t="s">
+      <c r="O220" s="3" t="s">
         <v>3012</v>
       </c>
-      <c r="P220" s="1" t="s">
+      <c r="P220" s="3" t="s">
         <v>3013</v>
       </c>
-      <c r="R220" s="1" t="s">
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="S220" s="1" t="s">
+      <c r="S220" s="3" t="s">
         <v>3015</v>
       </c>
-      <c r="AD220" s="1" t="s">
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+      <c r="X220" s="3"/>
+      <c r="Y220" s="3"/>
+      <c r="Z220" s="3"/>
+      <c r="AA220" s="3"/>
+      <c r="AB220" s="3"/>
+      <c r="AC220" s="3"/>
+      <c r="AD220" s="3" t="s">
         <v>6788</v>
       </c>
+      <c r="AE220" s="3"/>
+      <c r="AF220" s="3"/>
+      <c r="AG220" s="3"/>
+      <c r="AH220" s="3"/>
+      <c r="AI220" s="3"/>
+      <c r="AJ220" s="3"/>
+      <c r="AK220" s="3"/>
     </row>
     <row r="221" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="3" t="s">
         <v>3016</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="3" t="s">
         <v>3017</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="3" t="s">
         <v>3018</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="3" t="s">
         <v>3019</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3" t="s">
         <v>3020</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3" t="s">
         <v>3021</v>
       </c>
-      <c r="O221" s="1" t="s">
+      <c r="O221" s="3" t="s">
         <v>3022</v>
       </c>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
+      <c r="Y221" s="3"/>
+      <c r="Z221" s="3"/>
+      <c r="AA221" s="3"/>
+      <c r="AB221" s="3"/>
+      <c r="AC221" s="3"/>
+      <c r="AD221" s="3"/>
+      <c r="AE221" s="3"/>
+      <c r="AF221" s="3"/>
+      <c r="AG221" s="3"/>
+      <c r="AH221" s="3"/>
+      <c r="AI221" s="3"/>
+      <c r="AJ221" s="3"/>
+      <c r="AK221" s="3"/>
     </row>
     <row r="222" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>3023</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="3" t="s">
         <v>3024</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="3" t="s">
         <v>3025</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="3" t="s">
         <v>3026</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="3" t="s">
         <v>3027</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="3" t="s">
         <v>3029</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H222" s="3" t="s">
         <v>3030</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="I222" s="3" t="s">
         <v>3031</v>
       </c>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="3" t="s">
         <v>3032</v>
       </c>
-      <c r="K222" s="1" t="s">
+      <c r="K222" s="3" t="s">
         <v>3033</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="L222" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="M222" s="3"/>
+      <c r="N222" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="O222" s="1" t="s">
+      <c r="O222" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="P222" s="1" t="s">
+      <c r="P222" s="3" t="s">
         <v>3035</v>
       </c>
-      <c r="R222" s="1" t="s">
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="S222" s="1" t="s">
+      <c r="S222" s="3" t="s">
         <v>3036</v>
       </c>
-      <c r="AK222" s="1" t="s">
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
+      <c r="Y222" s="3"/>
+      <c r="Z222" s="3"/>
+      <c r="AA222" s="3"/>
+      <c r="AB222" s="3"/>
+      <c r="AC222" s="3"/>
+      <c r="AD222" s="3"/>
+      <c r="AE222" s="3"/>
+      <c r="AF222" s="3"/>
+      <c r="AG222" s="3"/>
+      <c r="AH222" s="3"/>
+      <c r="AI222" s="3"/>
+      <c r="AJ222" s="3"/>
+      <c r="AK222" s="3" t="s">
         <v>6789</v>
       </c>
     </row>
     <row r="223" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="3" t="s">
         <v>3037</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="3" t="s">
         <v>3038</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="3" t="s">
         <v>3039</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="3" t="s">
         <v>3040</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" s="3" t="s">
         <v>3041</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="3" t="s">
         <v>3042</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H223" s="3" t="s">
         <v>3044</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="I223" s="3" t="s">
         <v>3045</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="3" t="s">
         <v>3046</v>
       </c>
-      <c r="K223" s="1" t="s">
+      <c r="K223" s="3" t="s">
         <v>3047</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="L223" s="3" t="s">
         <v>3042</v>
       </c>
-      <c r="N223" s="1" t="s">
+      <c r="M223" s="3"/>
+      <c r="N223" s="3" t="s">
         <v>3048</v>
       </c>
-      <c r="O223" s="1" t="s">
+      <c r="O223" s="3" t="s">
         <v>3049</v>
       </c>
-      <c r="P223" s="1" t="s">
+      <c r="P223" s="3" t="s">
         <v>3050</v>
       </c>
-      <c r="Q223" s="1" t="s">
+      <c r="Q223" s="3" t="s">
         <v>3051</v>
       </c>
-      <c r="R223" s="1" t="s">
+      <c r="R223" s="3" t="s">
         <v>3052</v>
       </c>
-      <c r="S223" s="1" t="s">
+      <c r="S223" s="3" t="s">
         <v>3044</v>
       </c>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
+      <c r="Y223" s="3"/>
+      <c r="Z223" s="3"/>
+      <c r="AA223" s="3"/>
+      <c r="AB223" s="3"/>
+      <c r="AC223" s="3"/>
+      <c r="AD223" s="3"/>
+      <c r="AE223" s="3"/>
+      <c r="AF223" s="3"/>
+      <c r="AG223" s="3"/>
+      <c r="AH223" s="3"/>
+      <c r="AI223" s="3"/>
+      <c r="AJ223" s="3"/>
+      <c r="AK223" s="3"/>
     </row>
     <row r="224" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="3" t="s">
         <v>3053</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="3" t="s">
         <v>3054</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="3" t="s">
         <v>3055</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" s="3" t="s">
         <v>3057</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F224" s="3" t="s">
         <v>3058</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="3" t="s">
         <v>3059</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H224" s="3" t="s">
         <v>3060</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="I224" s="3" t="s">
         <v>3061</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="3" t="s">
         <v>3062</v>
       </c>
-      <c r="K224" s="1" t="s">
+      <c r="K224" s="3" t="s">
         <v>3063</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="L224" s="3" t="s">
         <v>3064</v>
       </c>
-      <c r="N224" s="1" t="s">
+      <c r="M224" s="3"/>
+      <c r="N224" s="3" t="s">
         <v>3065</v>
       </c>
-      <c r="O224" s="1" t="s">
+      <c r="O224" s="3" t="s">
         <v>3066</v>
       </c>
-      <c r="P224" s="1" t="s">
+      <c r="P224" s="3" t="s">
         <v>3067</v>
       </c>
-      <c r="R224" s="1" t="s">
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3" t="s">
         <v>3068</v>
       </c>
-      <c r="S224" s="1" t="s">
+      <c r="S224" s="3" t="s">
         <v>3069</v>
       </c>
-      <c r="AD224" s="1" t="s">
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
+      <c r="Y224" s="3"/>
+      <c r="Z224" s="3"/>
+      <c r="AA224" s="3"/>
+      <c r="AB224" s="3"/>
+      <c r="AC224" s="3"/>
+      <c r="AD224" s="3" t="s">
         <v>6790</v>
       </c>
+      <c r="AE224" s="3"/>
+      <c r="AF224" s="3"/>
+      <c r="AG224" s="3"/>
+      <c r="AH224" s="3"/>
+      <c r="AI224" s="3"/>
+      <c r="AJ224" s="3"/>
+      <c r="AK224" s="3"/>
     </row>
     <row r="225" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="3" t="s">
         <v>3071</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="3" t="s">
         <v>3072</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="3" t="s">
         <v>3073</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" s="3" t="s">
         <v>3074</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F225" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="3" t="s">
         <v>3076</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H225" s="3" t="s">
         <v>3077</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="I225" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="3" t="s">
         <v>3079</v>
       </c>
-      <c r="K225" s="1" t="s">
+      <c r="K225" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="L225" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="M225" s="1" t="s">
+      <c r="M225" s="3" t="s">
         <v>3081</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="N225" s="3" t="s">
         <v>3082</v>
       </c>
-      <c r="O225" s="1" t="s">
+      <c r="O225" s="3" t="s">
         <v>3083</v>
       </c>
-      <c r="P225" s="1" t="s">
+      <c r="P225" s="3" t="s">
         <v>3084</v>
       </c>
-      <c r="R225" s="1" t="s">
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3" t="s">
         <v>3085</v>
       </c>
-      <c r="S225" s="1" t="s">
+      <c r="S225" s="3" t="s">
         <v>3086</v>
       </c>
-      <c r="AK225" s="1" t="s">
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
+      <c r="Y225" s="3"/>
+      <c r="Z225" s="3"/>
+      <c r="AA225" s="3"/>
+      <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
+      <c r="AD225" s="3"/>
+      <c r="AE225" s="3"/>
+      <c r="AF225" s="3"/>
+      <c r="AG225" s="3"/>
+      <c r="AH225" s="3"/>
+      <c r="AI225" s="3"/>
+      <c r="AJ225" s="3"/>
+      <c r="AK225" s="3" t="s">
         <v>6791</v>
       </c>
     </row>
     <row r="226" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>3087</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="3" t="s">
         <v>3088</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="3" t="s">
         <v>3089</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="3" t="s">
         <v>3090</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="N226" s="1" t="s">
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3" t="s">
         <v>3092</v>
       </c>
-      <c r="O226" s="1" t="s">
+      <c r="O226" s="3" t="s">
         <v>3093</v>
       </c>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
+      <c r="Y226" s="3"/>
+      <c r="Z226" s="3"/>
+      <c r="AA226" s="3"/>
+      <c r="AB226" s="3"/>
+      <c r="AC226" s="3"/>
+      <c r="AD226" s="3"/>
+      <c r="AE226" s="3"/>
+      <c r="AF226" s="3"/>
+      <c r="AG226" s="3"/>
+      <c r="AH226" s="3"/>
+      <c r="AI226" s="3"/>
+      <c r="AJ226" s="3"/>
+      <c r="AK226" s="3"/>
     </row>
     <row r="227" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="3" t="s">
         <v>3094</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="3" t="s">
         <v>3095</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="3" t="s">
         <v>3096</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="3" t="s">
         <v>3097</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3" t="s">
         <v>3098</v>
       </c>
-      <c r="N227" s="1" t="s">
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3" t="s">
         <v>3099</v>
       </c>
-      <c r="O227" s="1" t="s">
+      <c r="O227" s="3" t="s">
         <v>3100</v>
       </c>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
+      <c r="Y227" s="3"/>
+      <c r="Z227" s="3"/>
+      <c r="AA227" s="3"/>
+      <c r="AB227" s="3"/>
+      <c r="AC227" s="3"/>
+      <c r="AD227" s="3"/>
+      <c r="AE227" s="3"/>
+      <c r="AF227" s="3"/>
+      <c r="AG227" s="3"/>
+      <c r="AH227" s="3"/>
+      <c r="AI227" s="3"/>
+      <c r="AJ227" s="3"/>
+      <c r="AK227" s="3"/>
     </row>
     <row r="228" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="3" t="s">
         <v>3101</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
         <v>3102</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F228" s="3" t="s">
         <v>3103</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="G228" s="3"/>
+      <c r="H228" s="3" t="s">
         <v>3104</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="I228" s="3" t="s">
         <v>3105</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J228" s="3" t="s">
         <v>3106</v>
       </c>
-      <c r="K228" s="1" t="s">
+      <c r="K228" s="3" t="s">
         <v>3107</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="L228" s="3" t="s">
         <v>3103</v>
       </c>
-      <c r="P228" s="1" t="s">
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3" t="s">
         <v>3108</v>
       </c>
-      <c r="R228" s="1" t="s">
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="S228" s="1" t="s">
+      <c r="S228" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="X228" s="1" t="s">
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3" t="s">
         <v>6792</v>
       </c>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+      <c r="AA228" s="3"/>
+      <c r="AB228" s="3"/>
+      <c r="AC228" s="3"/>
+      <c r="AD228" s="3"/>
+      <c r="AE228" s="3"/>
+      <c r="AF228" s="3"/>
+      <c r="AG228" s="3"/>
+      <c r="AH228" s="3"/>
+      <c r="AI228" s="3"/>
+      <c r="AJ228" s="3"/>
+      <c r="AK228" s="3"/>
     </row>
     <row r="229" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="3" t="s">
         <v>3111</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="3" t="s">
         <v>3112</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="3" t="s">
         <v>3113</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="3" t="s">
         <v>3114</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" s="3" t="s">
         <v>3115</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="3" t="s">
         <v>3116</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="3" t="s">
         <v>3117</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H229" s="3" t="s">
         <v>3118</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="I229" s="3" t="s">
         <v>3119</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="3" t="s">
         <v>3120</v>
       </c>
-      <c r="K229" s="1" t="s">
+      <c r="K229" s="3" t="s">
         <v>3121</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="L229" s="3" t="s">
         <v>3122</v>
       </c>
-      <c r="N229" s="1" t="s">
+      <c r="M229" s="3"/>
+      <c r="N229" s="3" t="s">
         <v>3123</v>
       </c>
-      <c r="O229" s="1" t="s">
+      <c r="O229" s="3" t="s">
         <v>3124</v>
       </c>
-      <c r="P229" s="1" t="s">
+      <c r="P229" s="3" t="s">
         <v>3125</v>
       </c>
-      <c r="R229" s="1" t="s">
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3" t="s">
         <v>3126</v>
       </c>
-      <c r="S229" s="1" t="s">
+      <c r="S229" s="3" t="s">
         <v>3127</v>
       </c>
-      <c r="Z229" s="1" t="s">
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+      <c r="Y229" s="3"/>
+      <c r="Z229" s="3" t="s">
         <v>6793</v>
       </c>
-      <c r="AB229" s="1" t="s">
+      <c r="AA229" s="3"/>
+      <c r="AB229" s="3" t="s">
         <v>6794</v>
       </c>
-      <c r="AK229" s="1" t="s">
+      <c r="AC229" s="3"/>
+      <c r="AD229" s="3"/>
+      <c r="AE229" s="3"/>
+      <c r="AF229" s="3"/>
+      <c r="AG229" s="3"/>
+      <c r="AH229" s="3"/>
+      <c r="AI229" s="3"/>
+      <c r="AJ229" s="3"/>
+      <c r="AK229" s="3" t="s">
         <v>6795</v>
       </c>
     </row>
     <row r="230" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>3128</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="3" t="s">
         <v>3129</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="3" t="s">
         <v>3130</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="3" t="s">
         <v>3131</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="3" t="s">
         <v>3132</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="3" t="s">
         <v>3133</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="3" t="s">
         <v>3134</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H230" s="3" t="s">
         <v>3135</v>
       </c>
-      <c r="I230" s="1" t="s">
+      <c r="I230" s="3" t="s">
         <v>3136</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="K230" s="1" t="s">
+      <c r="K230" s="3" t="s">
         <v>3138</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="L230" s="3" t="s">
         <v>3139</v>
       </c>
-      <c r="N230" s="1" t="s">
+      <c r="M230" s="3"/>
+      <c r="N230" s="3" t="s">
         <v>3140</v>
       </c>
-      <c r="O230" s="1" t="s">
+      <c r="O230" s="3" t="s">
         <v>3141</v>
       </c>
-      <c r="P230" s="1" t="s">
+      <c r="P230" s="3" t="s">
         <v>3142</v>
       </c>
-      <c r="R230" s="1" t="s">
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3" t="s">
         <v>3143</v>
       </c>
-      <c r="S230" s="1" t="s">
+      <c r="S230" s="3" t="s">
         <v>3135</v>
       </c>
-      <c r="X230" s="1" t="s">
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3" t="s">
         <v>6796</v>
       </c>
-      <c r="AC230" s="1" t="s">
+      <c r="Y230" s="3"/>
+      <c r="Z230" s="3"/>
+      <c r="AA230" s="3"/>
+      <c r="AB230" s="3"/>
+      <c r="AC230" s="3" t="s">
         <v>6797</v>
       </c>
+      <c r="AD230" s="3"/>
+      <c r="AE230" s="3"/>
+      <c r="AF230" s="3"/>
+      <c r="AG230" s="3"/>
+      <c r="AH230" s="3"/>
+      <c r="AI230" s="3"/>
+      <c r="AJ230" s="3"/>
+      <c r="AK230" s="3"/>
     </row>
     <row r="231" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="3" t="s">
         <v>3145</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="3" t="s">
         <v>3146</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="3" t="s">
         <v>3147</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3" t="s">
         <v>3148</v>
       </c>
-      <c r="N231" s="1" t="s">
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3" t="s">
         <v>3149</v>
       </c>
-      <c r="O231" s="1" t="s">
+      <c r="O231" s="3" t="s">
         <v>3150</v>
       </c>
-    </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+      <c r="U231" s="3"/>
+      <c r="V231" s="3"/>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
+      <c r="Y231" s="3"/>
+      <c r="Z231" s="3"/>
+      <c r="AA231" s="3"/>
+      <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
+      <c r="AD231" s="3"/>
+      <c r="AE231" s="3"/>
+      <c r="AF231" s="3"/>
+      <c r="AG231" s="3"/>
+      <c r="AH231" s="3"/>
+      <c r="AI231" s="3"/>
+      <c r="AJ231" s="3"/>
+      <c r="AK231" s="3"/>
+    </row>
+    <row r="232" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
         <v>3151</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="3" t="s">
         <v>3152</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="3" t="s">
         <v>3153</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="3" t="s">
         <v>3154</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="3" t="s">
         <v>3155</v>
       </c>
-      <c r="N232" s="1" t="s">
+      <c r="N232" s="3" t="s">
         <v>3156</v>
       </c>
-      <c r="O232" s="1" t="s">
+      <c r="O232" s="3" t="s">
         <v>3156</v>
       </c>
     </row>
     <row r="233" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="3" t="s">
         <v>3157</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="3" t="s">
         <v>3158</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="3" t="s">
         <v>3159</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="3" t="s">
         <v>3160</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" s="3" t="s">
         <v>3161</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F233" s="3" t="s">
         <v>3162</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="3" t="s">
         <v>3163</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H233" s="3" t="s">
         <v>3164</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="I233" s="3" t="s">
         <v>3165</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J233" s="3" t="s">
         <v>3166</v>
       </c>
-      <c r="K233" s="1" t="s">
+      <c r="K233" s="3" t="s">
         <v>3167</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="L233" s="3" t="s">
         <v>3168</v>
       </c>
-      <c r="N233" s="1" t="s">
+      <c r="M233" s="3"/>
+      <c r="N233" s="3" t="s">
         <v>3169</v>
       </c>
-      <c r="O233" s="1" t="s">
+      <c r="O233" s="3" t="s">
         <v>3170</v>
       </c>
-      <c r="P233" s="1" t="s">
+      <c r="P233" s="3" t="s">
         <v>3171</v>
       </c>
-      <c r="R233" s="1" t="s">
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3" t="s">
         <v>3172</v>
       </c>
-      <c r="S233" s="1" t="s">
+      <c r="S233" s="3" t="s">
         <v>3173</v>
       </c>
-      <c r="X233" s="1" t="s">
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+      <c r="W233" s="3"/>
+      <c r="X233" s="3" t="s">
         <v>6798</v>
       </c>
-      <c r="AK233" s="1" t="s">
+      <c r="Y233" s="3"/>
+      <c r="Z233" s="3"/>
+      <c r="AA233" s="3"/>
+      <c r="AB233" s="3"/>
+      <c r="AC233" s="3"/>
+      <c r="AD233" s="3"/>
+      <c r="AE233" s="3"/>
+      <c r="AF233" s="3"/>
+      <c r="AG233" s="3"/>
+      <c r="AH233" s="3"/>
+      <c r="AI233" s="3"/>
+      <c r="AJ233" s="3"/>
+      <c r="AK233" s="3" t="s">
         <v>6799</v>
       </c>
     </row>
     <row r="234" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="3" t="s">
         <v>3174</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="3" t="s">
         <v>3175</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="3" t="s">
         <v>3176</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="3" t="s">
         <v>3177</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3" t="s">
         <v>3178</v>
       </c>
-      <c r="N234" s="1" t="s">
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3" t="s">
         <v>3179</v>
       </c>
-      <c r="O234" s="1" t="s">
+      <c r="O234" s="3" t="s">
         <v>3180</v>
       </c>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+      <c r="Y234" s="3"/>
+      <c r="Z234" s="3"/>
+      <c r="AA234" s="3"/>
+      <c r="AB234" s="3"/>
+      <c r="AC234" s="3"/>
+      <c r="AD234" s="3"/>
+      <c r="AE234" s="3"/>
+      <c r="AF234" s="3"/>
+      <c r="AG234" s="3"/>
+      <c r="AH234" s="3"/>
+      <c r="AI234" s="3"/>
+      <c r="AJ234" s="3"/>
+      <c r="AK234" s="3"/>
     </row>
     <row r="235" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>3181</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="3" t="s">
         <v>3182</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>3183</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="3" t="s">
         <v>3184</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" s="3" t="s">
         <v>3185</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="3" t="s">
         <v>3186</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G235" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="H235" s="3" t="s">
         <v>3188</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="I235" s="3" t="s">
         <v>3189</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="K235" s="1" t="s">
+      <c r="K235" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="L235" s="3" t="s">
         <v>3192</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="M235" s="3"/>
+      <c r="N235" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="O235" s="1" t="s">
+      <c r="O235" s="3" t="s">
         <v>3194</v>
       </c>
-      <c r="P235" s="1" t="s">
+      <c r="P235" s="3" t="s">
         <v>3195</v>
       </c>
-      <c r="R235" s="1" t="s">
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="S235" s="1" t="s">
+      <c r="S235" s="3" t="s">
         <v>3197</v>
       </c>
-      <c r="Z235" s="1" t="s">
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
+      <c r="Y235" s="3"/>
+      <c r="Z235" s="3" t="s">
         <v>6800</v>
       </c>
+      <c r="AA235" s="3"/>
+      <c r="AB235" s="3"/>
+      <c r="AC235" s="3"/>
+      <c r="AD235" s="3"/>
+      <c r="AE235" s="3"/>
+      <c r="AF235" s="3"/>
+      <c r="AG235" s="3"/>
+      <c r="AH235" s="3"/>
+      <c r="AI235" s="3"/>
+      <c r="AJ235" s="3"/>
+      <c r="AK235" s="3"/>
     </row>
     <row r="236" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="3" t="s">
         <v>3198</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="3" t="s">
         <v>3200</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="3" t="s">
         <v>3201</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" s="3" t="s">
         <v>3202</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F236" s="3" t="s">
         <v>3203</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G236" s="3" t="s">
         <v>3200</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="H236" s="3" t="s">
         <v>3204</v>
       </c>
-      <c r="I236" s="1" t="s">
+      <c r="I236" s="3" t="s">
         <v>3205</v>
       </c>
-      <c r="J236" s="1" t="s">
+      <c r="J236" s="3" t="s">
         <v>3206</v>
       </c>
-      <c r="K236" s="1" t="s">
+      <c r="K236" s="3" t="s">
         <v>3207</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="L236" s="3" t="s">
         <v>3208</v>
       </c>
-      <c r="N236" s="1" t="s">
+      <c r="M236" s="3"/>
+      <c r="N236" s="3" t="s">
         <v>3209</v>
       </c>
-      <c r="O236" s="1" t="s">
+      <c r="O236" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="P236" s="1" t="s">
+      <c r="P236" s="3" t="s">
         <v>3210</v>
       </c>
-      <c r="R236" s="1" t="s">
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3" t="s">
         <v>3211</v>
       </c>
-      <c r="S236" s="1" t="s">
+      <c r="S236" s="3" t="s">
         <v>3212</v>
       </c>
-      <c r="Z236" s="1" t="s">
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
+      <c r="Z236" s="3" t="s">
         <v>6677</v>
       </c>
-      <c r="AB236" s="1" t="s">
+      <c r="AA236" s="3"/>
+      <c r="AB236" s="3" t="s">
         <v>6801</v>
       </c>
-      <c r="AK236" s="1" t="s">
+      <c r="AC236" s="3"/>
+      <c r="AD236" s="3"/>
+      <c r="AE236" s="3"/>
+      <c r="AF236" s="3"/>
+      <c r="AG236" s="3"/>
+      <c r="AH236" s="3"/>
+      <c r="AI236" s="3"/>
+      <c r="AJ236" s="3"/>
+      <c r="AK236" s="3" t="s">
         <v>6802</v>
       </c>
     </row>
     <row r="237" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="3" t="s">
         <v>3213</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="3" t="s">
         <v>3214</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>3215</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="3" t="s">
         <v>3217</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="H237" s="3" t="s">
         <v>3220</v>
       </c>
-      <c r="I237" s="1" t="s">
+      <c r="I237" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J237" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="K237" s="1" t="s">
+      <c r="K237" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="L237" s="3" t="s">
         <v>3224</v>
       </c>
-      <c r="N237" s="1" t="s">
+      <c r="M237" s="3"/>
+      <c r="N237" s="3" t="s">
         <v>3225</v>
       </c>
-      <c r="O237" s="1" t="s">
+      <c r="O237" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="P237" s="1" t="s">
+      <c r="P237" s="3" t="s">
         <v>3227</v>
       </c>
-      <c r="R237" s="1" t="s">
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3" t="s">
         <v>3228</v>
       </c>
-      <c r="S237" s="1" t="s">
+      <c r="S237" s="3" t="s">
         <v>3229</v>
       </c>
-      <c r="AD237" s="1" t="s">
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+      <c r="Z237" s="3"/>
+      <c r="AA237" s="3"/>
+      <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
+      <c r="AD237" s="3" t="s">
         <v>6803</v>
       </c>
+      <c r="AE237" s="3"/>
+      <c r="AF237" s="3"/>
+      <c r="AG237" s="3"/>
+      <c r="AH237" s="3"/>
+      <c r="AI237" s="3"/>
+      <c r="AJ237" s="3"/>
+      <c r="AK237" s="3"/>
     </row>
     <row r="238" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="3" t="s">
         <v>3230</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="3" t="s">
         <v>3232</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="3" t="s">
         <v>3233</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" s="3" t="s">
         <v>3234</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F238" s="3" t="s">
         <v>3235</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="G238" s="3" t="s">
         <v>3236</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="H238" s="3" t="s">
         <v>3237</v>
       </c>
-      <c r="I238" s="1" t="s">
+      <c r="I238" s="3" t="s">
         <v>3238</v>
       </c>
-      <c r="J238" s="1" t="s">
+      <c r="J238" s="3" t="s">
         <v>3239</v>
       </c>
-      <c r="K238" s="1" t="s">
+      <c r="K238" s="3" t="s">
         <v>3240</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="L238" s="3" t="s">
         <v>3241</v>
       </c>
-      <c r="N238" s="1" t="s">
+      <c r="M238" s="3"/>
+      <c r="N238" s="3" t="s">
         <v>3242</v>
       </c>
-      <c r="O238" s="1" t="s">
+      <c r="O238" s="3" t="s">
         <v>3243</v>
       </c>
-      <c r="P238" s="1" t="s">
+      <c r="P238" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="R238" s="1" t="s">
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3" t="s">
         <v>3245</v>
       </c>
-      <c r="S238" s="1" t="s">
+      <c r="S238" s="3" t="s">
         <v>3246</v>
       </c>
-      <c r="AD238" s="1" t="s">
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+      <c r="Z238" s="3"/>
+      <c r="AA238" s="3"/>
+      <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
+      <c r="AD238" s="3" t="s">
         <v>6804</v>
       </c>
+      <c r="AE238" s="3"/>
+      <c r="AF238" s="3"/>
+      <c r="AG238" s="3"/>
+      <c r="AH238" s="3"/>
+      <c r="AI238" s="3"/>
+      <c r="AJ238" s="3"/>
+      <c r="AK238" s="3"/>
     </row>
     <row r="239" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="3" t="s">
         <v>3247</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="3" t="s">
         <v>3248</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="3" t="s">
         <v>3249</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="3" t="s">
         <v>3250</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" s="3" t="s">
         <v>3251</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="F239" s="3" t="s">
         <v>3252</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="3" t="s">
         <v>3249</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H239" s="3" t="s">
         <v>3253</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="I239" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="3" t="s">
         <v>3255</v>
       </c>
-      <c r="K239" s="1" t="s">
+      <c r="K239" s="3" t="s">
         <v>3256</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="L239" s="3" t="s">
         <v>3251</v>
       </c>
-      <c r="N239" s="1" t="s">
+      <c r="M239" s="3"/>
+      <c r="N239" s="3" t="s">
         <v>3257</v>
       </c>
-      <c r="O239" s="1" t="s">
+      <c r="O239" s="3" t="s">
         <v>3258</v>
       </c>
-      <c r="P239" s="1" t="s">
+      <c r="P239" s="3" t="s">
         <v>3259</v>
       </c>
-      <c r="R239" s="1" t="s">
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3" t="s">
         <v>3260</v>
       </c>
-      <c r="S239" s="1" t="s">
+      <c r="S239" s="3" t="s">
         <v>3261</v>
       </c>
-      <c r="X239" s="1" t="s">
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3" t="s">
         <v>6805</v>
       </c>
-      <c r="AK239" s="1" t="s">
+      <c r="Y239" s="3"/>
+      <c r="Z239" s="3"/>
+      <c r="AA239" s="3"/>
+      <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
+      <c r="AD239" s="3"/>
+      <c r="AE239" s="3"/>
+      <c r="AF239" s="3"/>
+      <c r="AG239" s="3"/>
+      <c r="AH239" s="3"/>
+      <c r="AI239" s="3"/>
+      <c r="AJ239" s="3"/>
+      <c r="AK239" s="3" t="s">
         <v>6806</v>
       </c>
     </row>
     <row r="240" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
         <v>3262</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="3" t="s">
         <v>3263</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>3264</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="N240" s="1" t="s">
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3" t="s">
         <v>3267</v>
       </c>
-      <c r="O240" s="1" t="s">
+      <c r="O240" s="3" t="s">
         <v>3268</v>
       </c>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+      <c r="Z240" s="3"/>
+      <c r="AA240" s="3"/>
+      <c r="AB240" s="3"/>
+      <c r="AC240" s="3"/>
+      <c r="AD240" s="3"/>
+      <c r="AE240" s="3"/>
+      <c r="AF240" s="3"/>
+      <c r="AG240" s="3"/>
+      <c r="AH240" s="3"/>
+      <c r="AI240" s="3"/>
+      <c r="AJ240" s="3"/>
+      <c r="AK240" s="3"/>
     </row>
     <row r="241" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="3" t="s">
         <v>3269</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="3" t="s">
         <v>3271</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="3" t="s">
         <v>3272</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" s="3" t="s">
         <v>3273</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="F241" s="3"/>
+      <c r="G241" s="3" t="s">
         <v>3274</v>
       </c>
-      <c r="M241" s="1" t="s">
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3" t="s">
         <v>3275</v>
       </c>
-      <c r="N241" s="1" t="s">
+      <c r="N241" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="O241" s="1" t="s">
+      <c r="O241" s="3" t="s">
         <v>3277</v>
       </c>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+      <c r="Z241" s="3"/>
+      <c r="AA241" s="3"/>
+      <c r="AB241" s="3"/>
+      <c r="AC241" s="3"/>
+      <c r="AD241" s="3"/>
+      <c r="AE241" s="3"/>
+      <c r="AF241" s="3"/>
+      <c r="AG241" s="3"/>
+      <c r="AH241" s="3"/>
+      <c r="AI241" s="3"/>
+      <c r="AJ241" s="3"/>
+      <c r="AK241" s="3"/>
     </row>
     <row r="242" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="3" t="s">
         <v>3278</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="3" t="s">
         <v>3279</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="3" t="s">
         <v>3281</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3" t="s">
         <v>3282</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3" t="s">
         <v>3283</v>
       </c>
-      <c r="O242" s="1" t="s">
+      <c r="O242" s="3" t="s">
         <v>3284</v>
       </c>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+      <c r="Z242" s="3"/>
+      <c r="AA242" s="3"/>
+      <c r="AB242" s="3"/>
+      <c r="AC242" s="3"/>
+      <c r="AD242" s="3"/>
+      <c r="AE242" s="3"/>
+      <c r="AF242" s="3"/>
+      <c r="AG242" s="3"/>
+      <c r="AH242" s="3"/>
+      <c r="AI242" s="3"/>
+      <c r="AJ242" s="3"/>
+      <c r="AK242" s="3"/>
     </row>
     <row r="243" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="3" t="s">
         <v>3285</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="3" t="s">
         <v>3287</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3" t="s">
         <v>3289</v>
       </c>
-      <c r="N243" s="1" t="s">
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3" t="s">
         <v>3290</v>
       </c>
-      <c r="O243" s="1" t="s">
+      <c r="O243" s="3" t="s">
         <v>3291</v>
       </c>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+      <c r="Y243" s="3"/>
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="3"/>
+      <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
+      <c r="AD243" s="3"/>
+      <c r="AE243" s="3"/>
+      <c r="AF243" s="3"/>
+      <c r="AG243" s="3"/>
+      <c r="AH243" s="3"/>
+      <c r="AI243" s="3"/>
+      <c r="AJ243" s="3"/>
+      <c r="AK243" s="3"/>
     </row>
     <row r="244" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>3292</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="3" t="s">
         <v>3293</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="3" t="s">
         <v>3294</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="3" t="s">
         <v>3295</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3" t="s">
         <v>3296</v>
       </c>
-      <c r="N244" s="1" t="s">
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3" t="s">
         <v>3297</v>
       </c>
-      <c r="O244" s="1" t="s">
+      <c r="O244" s="3" t="s">
         <v>3298</v>
       </c>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="3"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
+      <c r="Y244" s="3"/>
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="3"/>
+      <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
+      <c r="AD244" s="3"/>
+      <c r="AE244" s="3"/>
+      <c r="AF244" s="3"/>
+      <c r="AG244" s="3"/>
+      <c r="AH244" s="3"/>
+      <c r="AI244" s="3"/>
+      <c r="AJ244" s="3"/>
+      <c r="AK244" s="3"/>
     </row>
     <row r="245" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>3299</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="3" t="s">
         <v>3300</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="3" t="s">
         <v>3301</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="3" t="s">
         <v>3302</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3" t="s">
         <v>3303</v>
       </c>
-      <c r="N245" s="1" t="s">
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3" t="s">
         <v>3304</v>
       </c>
-      <c r="O245" s="1" t="s">
+      <c r="O245" s="3" t="s">
         <v>3305</v>
       </c>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+      <c r="Y245" s="3"/>
+      <c r="Z245" s="3"/>
+      <c r="AA245" s="3"/>
+      <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
+      <c r="AD245" s="3"/>
+      <c r="AE245" s="3"/>
+      <c r="AF245" s="3"/>
+      <c r="AG245" s="3"/>
+      <c r="AH245" s="3"/>
+      <c r="AI245" s="3"/>
+      <c r="AJ245" s="3"/>
+      <c r="AK245" s="3"/>
     </row>
     <row r="246" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="3" t="s">
         <v>3095</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="3" t="s">
         <v>3096</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="3" t="s">
         <v>3097</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3" t="s">
         <v>3098</v>
       </c>
-      <c r="N246" s="1" t="s">
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3" t="s">
         <v>3099</v>
       </c>
-      <c r="O246" s="1" t="s">
+      <c r="O246" s="3" t="s">
         <v>3100</v>
       </c>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3"/>
+      <c r="Z246" s="3"/>
+      <c r="AA246" s="3"/>
+      <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
+      <c r="AD246" s="3"/>
+      <c r="AE246" s="3"/>
+      <c r="AF246" s="3"/>
+      <c r="AG246" s="3"/>
+      <c r="AH246" s="3"/>
+      <c r="AI246" s="3"/>
+      <c r="AJ246" s="3"/>
+      <c r="AK246" s="3"/>
     </row>
     <row r="247" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">

--- a/cgi_geosciml_timescale_merged_master.xlsx
+++ b/cgi_geosciml_timescale_merged_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM.CGI_GEOSCIML_ERML_PREF_" sheetId="1" r:id="rId1"/>
@@ -28069,10 +28069,10 @@
   <dimension ref="A1:AK640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A250" sqref="A250"/>
+      <selection pane="bottomRight" activeCell="A247" sqref="A247:AK255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41404,424 +41404,623 @@
       <c r="AK246" s="3"/>
     </row>
     <row r="247" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="3" t="s">
         <v>3307</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="3" t="s">
         <v>3308</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="3" t="s">
         <v>3309</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="3" t="s">
         <v>3310</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3" t="s">
         <v>3309</v>
       </c>
-      <c r="N247" s="1" t="s">
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3" t="s">
         <v>3311</v>
       </c>
-      <c r="O247" s="1" t="s">
+      <c r="O247" s="3" t="s">
         <v>3312</v>
       </c>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
+      <c r="Z247" s="3"/>
+      <c r="AA247" s="3"/>
+      <c r="AB247" s="3"/>
+      <c r="AC247" s="3"/>
+      <c r="AD247" s="3"/>
+      <c r="AE247" s="3"/>
+      <c r="AF247" s="3"/>
+      <c r="AG247" s="3"/>
+      <c r="AH247" s="3"/>
+      <c r="AI247" s="3"/>
+      <c r="AJ247" s="3"/>
+      <c r="AK247" s="3"/>
     </row>
     <row r="248" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="3" t="s">
         <v>3313</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="3" t="s">
         <v>3314</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="3" t="s">
         <v>3315</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="3" t="s">
         <v>3316</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" s="3" t="s">
         <v>3317</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F248" s="3" t="s">
         <v>3318</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="G248" s="3" t="s">
         <v>3319</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="H248" s="3" t="s">
         <v>3320</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="I248" s="3" t="s">
         <v>3321</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J248" s="3" t="s">
         <v>3322</v>
       </c>
-      <c r="K248" s="1" t="s">
+      <c r="K248" s="3" t="s">
         <v>3323</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="L248" s="3" t="s">
         <v>3318</v>
       </c>
-      <c r="N248" s="1" t="s">
+      <c r="M248" s="3"/>
+      <c r="N248" s="3" t="s">
         <v>3324</v>
       </c>
-      <c r="O248" s="1" t="s">
+      <c r="O248" s="3" t="s">
         <v>3325</v>
       </c>
-      <c r="P248" s="1" t="s">
+      <c r="P248" s="3" t="s">
         <v>3326</v>
       </c>
-      <c r="R248" s="1" t="s">
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3" t="s">
         <v>3327</v>
       </c>
-      <c r="S248" s="1" t="s">
+      <c r="S248" s="3" t="s">
         <v>3328</v>
       </c>
-      <c r="AH248" s="1" t="s">
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+      <c r="Y248" s="3"/>
+      <c r="Z248" s="3"/>
+      <c r="AA248" s="3"/>
+      <c r="AB248" s="3"/>
+      <c r="AC248" s="3"/>
+      <c r="AD248" s="3"/>
+      <c r="AE248" s="3"/>
+      <c r="AF248" s="3"/>
+      <c r="AG248" s="3"/>
+      <c r="AH248" s="3" t="s">
         <v>6807</v>
       </c>
+      <c r="AI248" s="3"/>
+      <c r="AJ248" s="3"/>
+      <c r="AK248" s="3"/>
     </row>
     <row r="249" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="3" t="s">
         <v>3329</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="3" t="s">
         <v>3330</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="3" t="s">
         <v>3332</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" s="3" t="s">
         <v>3333</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F249" s="3" t="s">
         <v>3334</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="G249" s="3" t="s">
         <v>3335</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="H249" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="I249" s="3" t="s">
         <v>3337</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J249" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="K249" s="3" t="s">
         <v>3339</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="L249" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="M249" s="3"/>
+      <c r="N249" s="3" t="s">
         <v>3341</v>
       </c>
-      <c r="O249" s="1" t="s">
+      <c r="O249" s="3" t="s">
         <v>3342</v>
       </c>
-      <c r="P249" s="1" t="s">
+      <c r="P249" s="3" t="s">
         <v>3343</v>
       </c>
-      <c r="R249" s="1" t="s">
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="S249" s="1" t="s">
+      <c r="S249" s="3" t="s">
         <v>3345</v>
       </c>
-      <c r="X249" s="1" t="s">
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3" t="s">
         <v>6808</v>
       </c>
-      <c r="Z249" s="1" t="s">
+      <c r="Y249" s="3"/>
+      <c r="Z249" s="3" t="s">
         <v>6809</v>
       </c>
-      <c r="AD249" s="1" t="s">
+      <c r="AA249" s="3"/>
+      <c r="AB249" s="3"/>
+      <c r="AC249" s="3"/>
+      <c r="AD249" s="3" t="s">
         <v>6810</v>
       </c>
-      <c r="AK249" s="1" t="s">
+      <c r="AE249" s="3"/>
+      <c r="AF249" s="3"/>
+      <c r="AG249" s="3"/>
+      <c r="AH249" s="3"/>
+      <c r="AI249" s="3"/>
+      <c r="AJ249" s="3"/>
+      <c r="AK249" s="3" t="s">
         <v>6811</v>
       </c>
     </row>
     <row r="250" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="3" t="s">
         <v>3348</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="G250" s="3"/>
+      <c r="H250" s="3" t="s">
         <v>3349</v>
       </c>
-      <c r="I250" s="1" t="s">
+      <c r="I250" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J250" s="3" t="s">
         <v>3351</v>
       </c>
-      <c r="K250" s="1" t="s">
+      <c r="K250" s="3" t="s">
         <v>3352</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="L250" s="3" t="s">
         <v>3353</v>
       </c>
-      <c r="P250" s="1" t="s">
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="R250" s="1" t="s">
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="S250" s="1" t="s">
+      <c r="S250" s="3" t="s">
         <v>3349</v>
       </c>
-      <c r="X250" s="1" t="s">
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3" t="s">
         <v>6812</v>
       </c>
+      <c r="Y250" s="3"/>
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+      <c r="AF250" s="3"/>
+      <c r="AG250" s="3"/>
+      <c r="AH250" s="3"/>
+      <c r="AI250" s="3"/>
+      <c r="AJ250" s="3"/>
+      <c r="AK250" s="3"/>
     </row>
     <row r="251" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="N251" s="1" t="s">
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="O251" s="1" t="s">
+      <c r="O251" s="3" t="s">
         <v>1052</v>
       </c>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="3"/>
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+      <c r="AF251" s="3"/>
+      <c r="AG251" s="3"/>
+      <c r="AH251" s="3"/>
+      <c r="AI251" s="3"/>
+      <c r="AJ251" s="3"/>
+      <c r="AK251" s="3"/>
     </row>
     <row r="252" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G252" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="H252" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="I252" s="1" t="s">
+      <c r="I252" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J252" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="K252" s="1" t="s">
+      <c r="K252" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="L252" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="M252" s="1" t="s">
+      <c r="M252" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="N252" s="1" t="s">
+      <c r="N252" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="O252" s="1" t="s">
+      <c r="O252" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="P252" s="1" t="s">
+      <c r="P252" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="R252" s="1" t="s">
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="S252" s="1" t="s">
+      <c r="S252" s="3" t="s">
         <v>1250</v>
       </c>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3"/>
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="3"/>
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+      <c r="AD252" s="3"/>
+      <c r="AE252" s="3"/>
+      <c r="AF252" s="3"/>
+      <c r="AG252" s="3"/>
+      <c r="AH252" s="3"/>
+      <c r="AI252" s="3"/>
+      <c r="AJ252" s="3"/>
+      <c r="AK252" s="3"/>
     </row>
     <row r="253" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="3" t="s">
         <v>3358</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F253" s="3" t="s">
         <v>3360</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="G253" s="3"/>
+      <c r="H253" s="3" t="s">
         <v>3361</v>
       </c>
-      <c r="I253" s="1" t="s">
+      <c r="I253" s="3" t="s">
         <v>3362</v>
       </c>
-      <c r="J253" s="1" t="s">
+      <c r="J253" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="K253" s="1" t="s">
+      <c r="K253" s="3" t="s">
         <v>3364</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="L253" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="P253" s="1" t="s">
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3" t="s">
         <v>3366</v>
       </c>
-      <c r="R253" s="1" t="s">
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="S253" s="1" t="s">
+      <c r="S253" s="3" t="s">
         <v>3368</v>
       </c>
-      <c r="X253" s="1" t="s">
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3" t="s">
         <v>6813</v>
       </c>
-      <c r="AB253" s="1" t="s">
+      <c r="Y253" s="3"/>
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3" t="s">
         <v>6814</v>
       </c>
-      <c r="AH253" s="1" t="s">
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+      <c r="AF253" s="3"/>
+      <c r="AG253" s="3"/>
+      <c r="AH253" s="3" t="s">
         <v>6815</v>
       </c>
+      <c r="AI253" s="3"/>
+      <c r="AJ253" s="3"/>
+      <c r="AK253" s="3"/>
     </row>
     <row r="254" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="3" t="s">
         <v>3370</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="3" t="s">
         <v>3371</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="3" t="s">
         <v>3372</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F254" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G254" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="H254" s="3" t="s">
         <v>3376</v>
       </c>
-      <c r="I254" s="1" t="s">
+      <c r="I254" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="J254" s="3" t="s">
         <v>3378</v>
       </c>
-      <c r="K254" s="1" t="s">
+      <c r="K254" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="L254" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="N254" s="1" t="s">
+      <c r="M254" s="3"/>
+      <c r="N254" s="3" t="s">
         <v>3380</v>
       </c>
-      <c r="O254" s="1" t="s">
+      <c r="O254" s="3" t="s">
         <v>3381</v>
       </c>
-      <c r="P254" s="1" t="s">
+      <c r="P254" s="3" t="s">
         <v>3382</v>
       </c>
-      <c r="R254" s="1" t="s">
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3" t="s">
         <v>3383</v>
       </c>
-      <c r="S254" s="1" t="s">
+      <c r="S254" s="3" t="s">
         <v>3384</v>
       </c>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
+      <c r="Z254" s="3"/>
+      <c r="AA254" s="3"/>
+      <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
+      <c r="AD254" s="3"/>
+      <c r="AE254" s="3"/>
+      <c r="AF254" s="3"/>
+      <c r="AG254" s="3"/>
+      <c r="AH254" s="3"/>
+      <c r="AI254" s="3"/>
+      <c r="AJ254" s="3"/>
+      <c r="AK254" s="3"/>
     </row>
     <row r="255" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="3" t="s">
         <v>3386</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="3" t="s">
         <v>3387</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="3" t="s">
         <v>3388</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F255" s="3" t="s">
         <v>3390</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="G255" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="H255" s="3" t="s">
         <v>3392</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="I255" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J255" s="3" t="s">
         <v>3394</v>
       </c>
-      <c r="K255" s="1" t="s">
+      <c r="K255" s="3" t="s">
         <v>3395</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="L255" s="3" t="s">
         <v>3396</v>
       </c>
-      <c r="N255" s="1" t="s">
+      <c r="M255" s="3"/>
+      <c r="N255" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="O255" s="1" t="s">
+      <c r="O255" s="3" t="s">
         <v>3398</v>
       </c>
-      <c r="P255" s="1" t="s">
+      <c r="P255" s="3" t="s">
         <v>3399</v>
       </c>
-      <c r="R255" s="1" t="s">
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3" t="s">
         <v>3400</v>
       </c>
-      <c r="S255" s="1" t="s">
+      <c r="S255" s="3" t="s">
         <v>3401</v>
       </c>
-      <c r="X255" s="1" t="s">
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3" t="s">
         <v>6816</v>
       </c>
-      <c r="Z255" s="1" t="s">
+      <c r="Y255" s="3"/>
+      <c r="Z255" s="3" t="s">
         <v>6817</v>
       </c>
-      <c r="AB255" s="1" t="s">
+      <c r="AA255" s="3"/>
+      <c r="AB255" s="3" t="s">
         <v>6818</v>
       </c>
+      <c r="AC255" s="3"/>
+      <c r="AD255" s="3"/>
+      <c r="AE255" s="3"/>
+      <c r="AF255" s="3"/>
+      <c r="AG255" s="3"/>
+      <c r="AH255" s="3"/>
+      <c r="AI255" s="3"/>
+      <c r="AJ255" s="3"/>
+      <c r="AK255" s="3"/>
     </row>
     <row r="256" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">

--- a/cgi_geosciml_timescale_merged_master.xlsx
+++ b/cgi_geosciml_timescale_merged_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM.CGI_GEOSCIML_ERML_PREF_" sheetId="1" r:id="rId1"/>
@@ -28066,13 +28066,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK640"/>
+  <dimension ref="A1:AX640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A247" sqref="A247:AK255"/>
+      <selection pane="bottomRight" activeCell="A268" sqref="A268:AX302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42023,1810 +42023,3434 @@
       <c r="AK255" s="3"/>
     </row>
     <row r="256" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="3" t="s">
         <v>3402</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="3" t="s">
         <v>3403</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="3" t="s">
         <v>3404</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="3" t="s">
         <v>3405</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" s="3" t="s">
         <v>3406</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="F256" s="3" t="s">
         <v>3407</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="G256" s="3" t="s">
         <v>3408</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="H256" s="3" t="s">
         <v>3409</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="I256" s="3" t="s">
         <v>3410</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="J256" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="K256" s="1" t="s">
+      <c r="K256" s="3" t="s">
         <v>3412</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="L256" s="3" t="s">
         <v>3413</v>
       </c>
-      <c r="N256" s="1" t="s">
+      <c r="M256" s="3"/>
+      <c r="N256" s="3" t="s">
         <v>3414</v>
       </c>
-      <c r="O256" s="1" t="s">
+      <c r="O256" s="3" t="s">
         <v>3415</v>
       </c>
-      <c r="P256" s="1" t="s">
+      <c r="P256" s="3" t="s">
         <v>3416</v>
       </c>
-      <c r="R256" s="1" t="s">
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3" t="s">
         <v>3417</v>
       </c>
-      <c r="S256" s="1" t="s">
+      <c r="S256" s="3" t="s">
         <v>3418</v>
       </c>
-      <c r="AK256" s="1" t="s">
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
+      <c r="Y256" s="3"/>
+      <c r="Z256" s="3"/>
+      <c r="AA256" s="3"/>
+      <c r="AB256" s="3"/>
+      <c r="AC256" s="3"/>
+      <c r="AD256" s="3"/>
+      <c r="AE256" s="3"/>
+      <c r="AF256" s="3"/>
+      <c r="AG256" s="3"/>
+      <c r="AH256" s="3"/>
+      <c r="AI256" s="3"/>
+      <c r="AJ256" s="3"/>
+      <c r="AK256" s="3" t="s">
         <v>6819</v>
       </c>
     </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
         <v>3419</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="3" t="s">
         <v>3420</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="3" t="s">
         <v>3422</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="N257" s="1" t="s">
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3" t="s">
         <v>3424</v>
       </c>
-      <c r="O257" s="1" t="s">
+      <c r="O257" s="3" t="s">
         <v>3425</v>
       </c>
-    </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+      <c r="AD257" s="3"/>
+      <c r="AE257" s="3"/>
+      <c r="AF257" s="3"/>
+      <c r="AG257" s="3"/>
+      <c r="AH257" s="3"/>
+      <c r="AI257" s="3"/>
+      <c r="AJ257" s="3"/>
+      <c r="AK257" s="3"/>
+    </row>
+    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="3" t="s">
         <v>3427</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="3" t="s">
         <v>3428</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="3" t="s">
         <v>3429</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" s="3" t="s">
         <v>3430</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="F258" s="3" t="s">
         <v>3431</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G258" s="3" t="s">
         <v>3432</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="H258" s="3" t="s">
         <v>3433</v>
       </c>
-      <c r="I258" s="1" t="s">
+      <c r="I258" s="3" t="s">
         <v>3434</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J258" s="3" t="s">
         <v>3435</v>
       </c>
-      <c r="K258" s="1" t="s">
+      <c r="K258" s="3" t="s">
         <v>3436</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="L258" s="3" t="s">
         <v>3437</v>
       </c>
-      <c r="N258" s="1" t="s">
+      <c r="M258" s="3"/>
+      <c r="N258" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="O258" s="1" t="s">
+      <c r="O258" s="3" t="s">
         <v>3439</v>
       </c>
-      <c r="P258" s="1" t="s">
+      <c r="P258" s="3" t="s">
         <v>3440</v>
       </c>
-      <c r="R258" s="1" t="s">
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="S258" s="1" t="s">
+      <c r="S258" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="X258" s="1" t="s">
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3" t="s">
         <v>6820</v>
       </c>
-      <c r="AK258" s="1" t="s">
+      <c r="Y258" s="3"/>
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+      <c r="AF258" s="3"/>
+      <c r="AG258" s="3"/>
+      <c r="AH258" s="3"/>
+      <c r="AI258" s="3"/>
+      <c r="AJ258" s="3"/>
+      <c r="AK258" s="3" t="s">
         <v>6821</v>
       </c>
     </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="3" t="s">
         <v>3444</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E259" s="3" t="s">
         <v>3447</v>
       </c>
-      <c r="F259" s="1" t="s">
+      <c r="F259" s="3" t="s">
         <v>3448</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="G259" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="H259" s="1" t="s">
+      <c r="H259" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="I259" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J259" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="K259" s="1" t="s">
+      <c r="K259" s="3" t="s">
         <v>3453</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="L259" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="N259" s="1" t="s">
+      <c r="M259" s="3"/>
+      <c r="N259" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="O259" s="1" t="s">
+      <c r="O259" s="3" t="s">
         <v>3456</v>
       </c>
-      <c r="P259" s="1" t="s">
+      <c r="P259" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="R259" s="1" t="s">
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="S259" s="1" t="s">
+      <c r="S259" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="X259" s="1" t="s">
+      <c r="T259" s="3"/>
+      <c r="U259" s="3"/>
+      <c r="V259" s="3"/>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3" t="s">
         <v>6822</v>
       </c>
-      <c r="Z259" s="1" t="s">
+      <c r="Y259" s="3"/>
+      <c r="Z259" s="3" t="s">
         <v>6823</v>
       </c>
-      <c r="AK259" s="1" t="s">
+      <c r="AA259" s="3"/>
+      <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
+      <c r="AD259" s="3"/>
+      <c r="AE259" s="3"/>
+      <c r="AF259" s="3"/>
+      <c r="AG259" s="3"/>
+      <c r="AH259" s="3"/>
+      <c r="AI259" s="3"/>
+      <c r="AJ259" s="3"/>
+      <c r="AK259" s="3" t="s">
         <v>6824</v>
       </c>
     </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="3" t="s">
         <v>3462</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="3" t="s">
         <v>3463</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="N260" s="1" t="s">
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="O260" s="1" t="s">
+      <c r="O260" s="3" t="s">
         <v>3466</v>
       </c>
-    </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
+      <c r="S260" s="3"/>
+      <c r="T260" s="3"/>
+      <c r="U260" s="3"/>
+      <c r="V260" s="3"/>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
+      <c r="Y260" s="3"/>
+      <c r="Z260" s="3"/>
+      <c r="AA260" s="3"/>
+      <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
+      <c r="AD260" s="3"/>
+      <c r="AE260" s="3"/>
+      <c r="AF260" s="3"/>
+      <c r="AG260" s="3"/>
+      <c r="AH260" s="3"/>
+      <c r="AI260" s="3"/>
+      <c r="AJ260" s="3"/>
+      <c r="AK260" s="3"/>
+    </row>
+    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="3" t="s">
         <v>3469</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" s="3" t="s">
         <v>3471</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="F261" s="3" t="s">
         <v>3472</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="G261" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="H261" s="3" t="s">
         <v>3474</v>
       </c>
-      <c r="I261" s="1" t="s">
+      <c r="I261" s="3" t="s">
         <v>3475</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="J261" s="3" t="s">
         <v>3476</v>
       </c>
-      <c r="K261" s="1" t="s">
+      <c r="K261" s="3" t="s">
         <v>3477</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="L261" s="3" t="s">
         <v>3478</v>
       </c>
-      <c r="N261" s="1" t="s">
+      <c r="M261" s="3"/>
+      <c r="N261" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="O261" s="1" t="s">
+      <c r="O261" s="3" t="s">
         <v>3480</v>
       </c>
-      <c r="P261" s="1" t="s">
+      <c r="P261" s="3" t="s">
         <v>3481</v>
       </c>
-      <c r="R261" s="1" t="s">
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="S261" s="1" t="s">
+      <c r="S261" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="Z261" s="1" t="s">
+      <c r="T261" s="3"/>
+      <c r="U261" s="3"/>
+      <c r="V261" s="3"/>
+      <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
+      <c r="Y261" s="3"/>
+      <c r="Z261" s="3" t="s">
         <v>6825</v>
       </c>
-      <c r="AK261" s="1" t="s">
+      <c r="AA261" s="3"/>
+      <c r="AB261" s="3"/>
+      <c r="AC261" s="3"/>
+      <c r="AD261" s="3"/>
+      <c r="AE261" s="3"/>
+      <c r="AF261" s="3"/>
+      <c r="AG261" s="3"/>
+      <c r="AH261" s="3"/>
+      <c r="AI261" s="3"/>
+      <c r="AJ261" s="3"/>
+      <c r="AK261" s="3" t="s">
         <v>6826</v>
       </c>
     </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
         <v>3484</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3" t="s">
         <v>3485</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="F262" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="H262" s="1" t="s">
+      <c r="G262" s="3"/>
+      <c r="H262" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="I262" s="1" t="s">
+      <c r="I262" s="3" t="s">
         <v>3488</v>
       </c>
-      <c r="J262" s="1" t="s">
+      <c r="J262" s="3" t="s">
         <v>3489</v>
       </c>
-      <c r="K262" s="1" t="s">
+      <c r="K262" s="3" t="s">
         <v>3490</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="L262" s="3" t="s">
         <v>3491</v>
       </c>
-      <c r="P262" s="1" t="s">
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3" t="s">
         <v>3492</v>
       </c>
-      <c r="R262" s="1" t="s">
+      <c r="Q262" s="3"/>
+      <c r="R262" s="3" t="s">
         <v>3493</v>
       </c>
-      <c r="S262" s="1" t="s">
+      <c r="S262" s="3" t="s">
         <v>3494</v>
       </c>
-    </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+      <c r="T262" s="3"/>
+      <c r="U262" s="3"/>
+      <c r="V262" s="3"/>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
+      <c r="Y262" s="3"/>
+      <c r="Z262" s="3"/>
+      <c r="AA262" s="3"/>
+      <c r="AB262" s="3"/>
+      <c r="AC262" s="3"/>
+      <c r="AD262" s="3"/>
+      <c r="AE262" s="3"/>
+      <c r="AF262" s="3"/>
+      <c r="AG262" s="3"/>
+      <c r="AH262" s="3"/>
+      <c r="AI262" s="3"/>
+      <c r="AJ262" s="3"/>
+      <c r="AK262" s="3"/>
+    </row>
+    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
         <v>3495</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="3" t="s">
         <v>3496</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="3" t="s">
         <v>3497</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="3" t="s">
         <v>3498</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" s="3" t="s">
         <v>3499</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="F263" s="3" t="s">
         <v>3500</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G263" s="3" t="s">
         <v>3501</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="H263" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="I263" s="3" t="s">
         <v>3503</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="J263" s="3" t="s">
         <v>3504</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="K263" s="3" t="s">
         <v>3505</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="L263" s="3" t="s">
         <v>3506</v>
       </c>
-      <c r="N263" s="1" t="s">
+      <c r="M263" s="3"/>
+      <c r="N263" s="3" t="s">
         <v>3507</v>
       </c>
-      <c r="O263" s="1" t="s">
+      <c r="O263" s="3" t="s">
         <v>3508</v>
       </c>
-      <c r="P263" s="1" t="s">
+      <c r="P263" s="3" t="s">
         <v>3509</v>
       </c>
-      <c r="R263" s="1" t="s">
+      <c r="Q263" s="3"/>
+      <c r="R263" s="3" t="s">
         <v>3510</v>
       </c>
-      <c r="S263" s="1" t="s">
+      <c r="S263" s="3" t="s">
         <v>3511</v>
       </c>
-      <c r="AD263" s="1" t="s">
+      <c r="T263" s="3"/>
+      <c r="U263" s="3"/>
+      <c r="V263" s="3"/>
+      <c r="W263" s="3"/>
+      <c r="X263" s="3"/>
+      <c r="Y263" s="3"/>
+      <c r="Z263" s="3"/>
+      <c r="AA263" s="3"/>
+      <c r="AB263" s="3"/>
+      <c r="AC263" s="3"/>
+      <c r="AD263" s="3" t="s">
         <v>6827</v>
       </c>
-      <c r="AH263" s="1" t="s">
+      <c r="AE263" s="3"/>
+      <c r="AF263" s="3"/>
+      <c r="AG263" s="3"/>
+      <c r="AH263" s="3" t="s">
         <v>6828</v>
       </c>
-      <c r="AK263" s="1" t="s">
+      <c r="AI263" s="3"/>
+      <c r="AJ263" s="3"/>
+      <c r="AK263" s="3" t="s">
         <v>6829</v>
       </c>
     </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
         <v>3512</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="3" t="s">
         <v>3513</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="3" t="s">
         <v>3514</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="3" t="s">
         <v>3515</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E264" s="3" t="s">
         <v>3516</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="F264" s="3" t="s">
         <v>3517</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="G264" s="3" t="s">
         <v>3518</v>
       </c>
-      <c r="H264" s="1" t="s">
+      <c r="H264" s="3" t="s">
         <v>3519</v>
       </c>
-      <c r="I264" s="1" t="s">
+      <c r="I264" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J264" s="3" t="s">
         <v>3521</v>
       </c>
-      <c r="K264" s="1" t="s">
+      <c r="K264" s="3" t="s">
         <v>3522</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="L264" s="3" t="s">
         <v>3523</v>
       </c>
-      <c r="N264" s="1" t="s">
+      <c r="M264" s="3"/>
+      <c r="N264" s="3" t="s">
         <v>3524</v>
       </c>
-      <c r="O264" s="1" t="s">
+      <c r="O264" s="3" t="s">
         <v>3525</v>
       </c>
-      <c r="P264" s="1" t="s">
+      <c r="P264" s="3" t="s">
         <v>3526</v>
       </c>
-      <c r="R264" s="1" t="s">
+      <c r="Q264" s="3"/>
+      <c r="R264" s="3" t="s">
         <v>3527</v>
       </c>
-      <c r="S264" s="1" t="s">
+      <c r="S264" s="3" t="s">
         <v>3528</v>
       </c>
-      <c r="AB264" s="1" t="s">
+      <c r="T264" s="3"/>
+      <c r="U264" s="3"/>
+      <c r="V264" s="3"/>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
+      <c r="Y264" s="3"/>
+      <c r="Z264" s="3"/>
+      <c r="AA264" s="3"/>
+      <c r="AB264" s="3" t="s">
         <v>6830</v>
       </c>
-      <c r="AD264" s="1" t="s">
+      <c r="AC264" s="3"/>
+      <c r="AD264" s="3" t="s">
         <v>6831</v>
       </c>
-      <c r="AK264" s="1" t="s">
+      <c r="AE264" s="3"/>
+      <c r="AF264" s="3"/>
+      <c r="AG264" s="3"/>
+      <c r="AH264" s="3"/>
+      <c r="AI264" s="3"/>
+      <c r="AJ264" s="3"/>
+      <c r="AK264" s="3" t="s">
         <v>6832</v>
       </c>
     </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
         <v>3529</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="3" t="s">
         <v>3530</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" s="3" t="s">
         <v>3532</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E265" s="3" t="s">
         <v>3533</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="F265" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="G265" s="3" t="s">
         <v>3535</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="H265" s="3" t="s">
         <v>3536</v>
       </c>
-      <c r="I265" s="1" t="s">
+      <c r="I265" s="3" t="s">
         <v>3537</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="J265" s="3" t="s">
         <v>3538</v>
       </c>
-      <c r="K265" s="1" t="s">
+      <c r="K265" s="3" t="s">
         <v>3539</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="L265" s="3" t="s">
         <v>3540</v>
       </c>
-      <c r="N265" s="1" t="s">
+      <c r="M265" s="3"/>
+      <c r="N265" s="3" t="s">
         <v>3541</v>
       </c>
-      <c r="O265" s="1" t="s">
+      <c r="O265" s="3" t="s">
         <v>3542</v>
       </c>
-      <c r="P265" s="1" t="s">
+      <c r="P265" s="3" t="s">
         <v>3543</v>
       </c>
-      <c r="R265" s="1" t="s">
+      <c r="Q265" s="3"/>
+      <c r="R265" s="3" t="s">
         <v>3544</v>
       </c>
-      <c r="S265" s="1" t="s">
+      <c r="S265" s="3" t="s">
         <v>3545</v>
       </c>
-      <c r="X265" s="1" t="s">
+      <c r="T265" s="3"/>
+      <c r="U265" s="3"/>
+      <c r="V265" s="3"/>
+      <c r="W265" s="3"/>
+      <c r="X265" s="3" t="s">
         <v>6833</v>
       </c>
-      <c r="Z265" s="1" t="s">
+      <c r="Y265" s="3"/>
+      <c r="Z265" s="3" t="s">
         <v>6834</v>
       </c>
-      <c r="AD265" s="1" t="s">
+      <c r="AA265" s="3"/>
+      <c r="AB265" s="3"/>
+      <c r="AC265" s="3"/>
+      <c r="AD265" s="3" t="s">
         <v>6835</v>
       </c>
-      <c r="AH265" s="1" t="s">
+      <c r="AE265" s="3"/>
+      <c r="AF265" s="3"/>
+      <c r="AG265" s="3"/>
+      <c r="AH265" s="3" t="s">
         <v>6836</v>
       </c>
-      <c r="AK265" s="1" t="s">
+      <c r="AI265" s="3"/>
+      <c r="AJ265" s="3"/>
+      <c r="AK265" s="3" t="s">
         <v>6837</v>
       </c>
     </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
         <v>3546</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="3" t="s">
         <v>3547</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="3" t="s">
         <v>3548</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="3" t="s">
         <v>3549</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E266" s="3" t="s">
         <v>3550</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F266" s="3" t="s">
         <v>3551</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="G266" s="3" t="s">
         <v>3552</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="H266" s="3" t="s">
         <v>3553</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="I266" s="3" t="s">
         <v>3554</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J266" s="3" t="s">
         <v>3555</v>
       </c>
-      <c r="K266" s="1" t="s">
+      <c r="K266" s="3" t="s">
         <v>3556</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="L266" s="3" t="s">
         <v>3557</v>
       </c>
-      <c r="N266" s="1" t="s">
+      <c r="M266" s="3"/>
+      <c r="N266" s="3" t="s">
         <v>3558</v>
       </c>
-      <c r="O266" s="1" t="s">
+      <c r="O266" s="3" t="s">
         <v>3559</v>
       </c>
-      <c r="P266" s="1" t="s">
+      <c r="P266" s="3" t="s">
         <v>3560</v>
       </c>
-      <c r="R266" s="1" t="s">
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3" t="s">
         <v>3561</v>
       </c>
-      <c r="S266" s="1" t="s">
+      <c r="S266" s="3" t="s">
         <v>3562</v>
       </c>
-      <c r="AB266" s="1" t="s">
+      <c r="T266" s="3"/>
+      <c r="U266" s="3"/>
+      <c r="V266" s="3"/>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
+      <c r="Y266" s="3"/>
+      <c r="Z266" s="3"/>
+      <c r="AA266" s="3"/>
+      <c r="AB266" s="3" t="s">
         <v>6838</v>
       </c>
-      <c r="AD266" s="1" t="s">
+      <c r="AC266" s="3"/>
+      <c r="AD266" s="3" t="s">
         <v>6839</v>
       </c>
-      <c r="AK266" s="1" t="s">
+      <c r="AE266" s="3"/>
+      <c r="AF266" s="3"/>
+      <c r="AG266" s="3"/>
+      <c r="AH266" s="3"/>
+      <c r="AI266" s="3"/>
+      <c r="AJ266" s="3"/>
+      <c r="AK266" s="3" t="s">
         <v>6840</v>
       </c>
     </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
         <v>3563</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="3" t="s">
         <v>3564</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="3" t="s">
         <v>3565</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" s="3" t="s">
         <v>3566</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E267" s="3" t="s">
         <v>3567</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F267" s="3" t="s">
         <v>3568</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="G267" s="3" t="s">
         <v>3569</v>
       </c>
-      <c r="H267" s="1" t="s">
+      <c r="H267" s="3" t="s">
         <v>3570</v>
       </c>
-      <c r="I267" s="1" t="s">
+      <c r="I267" s="3" t="s">
         <v>3571</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J267" s="3" t="s">
         <v>3572</v>
       </c>
-      <c r="K267" s="1" t="s">
+      <c r="K267" s="3" t="s">
         <v>3573</v>
       </c>
-      <c r="L267" s="1" t="s">
+      <c r="L267" s="3" t="s">
         <v>3574</v>
       </c>
-      <c r="N267" s="1" t="s">
+      <c r="M267" s="3"/>
+      <c r="N267" s="3" t="s">
         <v>3575</v>
       </c>
-      <c r="O267" s="1" t="s">
+      <c r="O267" s="3" t="s">
         <v>3567</v>
       </c>
-      <c r="P267" s="1" t="s">
+      <c r="P267" s="3" t="s">
         <v>3576</v>
       </c>
-      <c r="R267" s="1" t="s">
+      <c r="Q267" s="3"/>
+      <c r="R267" s="3" t="s">
         <v>3577</v>
       </c>
-      <c r="S267" s="1" t="s">
+      <c r="S267" s="3" t="s">
         <v>3578</v>
       </c>
-      <c r="X267" s="1" t="s">
+      <c r="T267" s="3"/>
+      <c r="U267" s="3"/>
+      <c r="V267" s="3"/>
+      <c r="W267" s="3"/>
+      <c r="X267" s="3" t="s">
         <v>6841</v>
       </c>
-      <c r="AK267" s="1" t="s">
+      <c r="Y267" s="3"/>
+      <c r="Z267" s="3"/>
+      <c r="AA267" s="3"/>
+      <c r="AB267" s="3"/>
+      <c r="AC267" s="3"/>
+      <c r="AD267" s="3"/>
+      <c r="AE267" s="3"/>
+      <c r="AF267" s="3"/>
+      <c r="AG267" s="3"/>
+      <c r="AH267" s="3"/>
+      <c r="AI267" s="3"/>
+      <c r="AJ267" s="3"/>
+      <c r="AK267" s="3" t="s">
         <v>6842</v>
       </c>
     </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
+    <row r="268" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
         <v>3579</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="3" t="s">
         <v>3580</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="3" t="s">
         <v>3581</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" s="3" t="s">
         <v>3582</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E268" s="3" t="s">
         <v>3580</v>
       </c>
-      <c r="F268" s="1" t="s">
+      <c r="F268" s="3" t="s">
         <v>3583</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="G268" s="3" t="s">
         <v>3584</v>
       </c>
-      <c r="H268" s="1" t="s">
+      <c r="H268" s="3" t="s">
         <v>3585</v>
       </c>
-      <c r="I268" s="1" t="s">
+      <c r="I268" s="3" t="s">
         <v>3586</v>
       </c>
-      <c r="J268" s="1" t="s">
+      <c r="J268" s="3" t="s">
         <v>3587</v>
       </c>
-      <c r="K268" s="1" t="s">
+      <c r="K268" s="3" t="s">
         <v>3588</v>
       </c>
-      <c r="L268" s="1" t="s">
+      <c r="L268" s="3" t="s">
         <v>3589</v>
       </c>
-      <c r="N268" s="1" t="s">
+      <c r="M268" s="3"/>
+      <c r="N268" s="3" t="s">
         <v>3590</v>
       </c>
-      <c r="O268" s="1" t="s">
+      <c r="O268" s="3" t="s">
         <v>3580</v>
       </c>
-      <c r="P268" s="1" t="s">
+      <c r="P268" s="3" t="s">
         <v>3591</v>
       </c>
-      <c r="R268" s="1" t="s">
+      <c r="Q268" s="3"/>
+      <c r="R268" s="3" t="s">
         <v>3592</v>
       </c>
-      <c r="S268" s="1" t="s">
+      <c r="S268" s="3" t="s">
         <v>3593</v>
       </c>
-      <c r="X268" s="1" t="s">
+      <c r="T268" s="3"/>
+      <c r="U268" s="3"/>
+      <c r="V268" s="3"/>
+      <c r="W268" s="3"/>
+      <c r="X268" s="3" t="s">
         <v>6843</v>
       </c>
-      <c r="AK268" s="1" t="s">
+      <c r="Y268" s="3"/>
+      <c r="Z268" s="3"/>
+      <c r="AA268" s="3"/>
+      <c r="AB268" s="3"/>
+      <c r="AC268" s="3"/>
+      <c r="AD268" s="3"/>
+      <c r="AE268" s="3"/>
+      <c r="AF268" s="3"/>
+      <c r="AG268" s="3"/>
+      <c r="AH268" s="3"/>
+      <c r="AI268" s="3"/>
+      <c r="AJ268" s="3"/>
+      <c r="AK268" s="3" t="s">
         <v>6844</v>
       </c>
-    </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
+      <c r="AL268" s="3"/>
+      <c r="AM268" s="3"/>
+      <c r="AN268" s="3"/>
+      <c r="AO268" s="3"/>
+      <c r="AP268" s="3"/>
+      <c r="AQ268" s="3"/>
+      <c r="AR268" s="3"/>
+      <c r="AS268" s="3"/>
+      <c r="AT268" s="3"/>
+      <c r="AU268" s="3"/>
+      <c r="AV268" s="3"/>
+      <c r="AW268" s="3"/>
+      <c r="AX268" s="3"/>
+    </row>
+    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
         <v>3594</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="3" t="s">
         <v>3595</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="3" t="s">
         <v>3596</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="3" t="s">
         <v>3597</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3" t="s">
         <v>3598</v>
       </c>
-      <c r="N269" s="1" t="s">
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3" t="s">
         <v>3599</v>
       </c>
-      <c r="O269" s="1" t="s">
+      <c r="O269" s="3" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
+      <c r="S269" s="3"/>
+      <c r="T269" s="3"/>
+      <c r="U269" s="3"/>
+      <c r="V269" s="3"/>
+      <c r="W269" s="3"/>
+      <c r="X269" s="3"/>
+      <c r="Y269" s="3"/>
+      <c r="Z269" s="3"/>
+      <c r="AA269" s="3"/>
+      <c r="AB269" s="3"/>
+      <c r="AC269" s="3"/>
+      <c r="AD269" s="3"/>
+      <c r="AE269" s="3"/>
+      <c r="AF269" s="3"/>
+      <c r="AG269" s="3"/>
+      <c r="AH269" s="3"/>
+      <c r="AI269" s="3"/>
+      <c r="AJ269" s="3"/>
+      <c r="AK269" s="3"/>
+      <c r="AL269" s="3"/>
+      <c r="AM269" s="3"/>
+      <c r="AN269" s="3"/>
+      <c r="AO269" s="3"/>
+      <c r="AP269" s="3"/>
+      <c r="AQ269" s="3"/>
+      <c r="AR269" s="3"/>
+      <c r="AS269" s="3"/>
+      <c r="AT269" s="3"/>
+      <c r="AU269" s="3"/>
+      <c r="AV269" s="3"/>
+      <c r="AW269" s="3"/>
+      <c r="AX269" s="3"/>
+    </row>
+    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
         <v>3601</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="3" t="s">
         <v>3602</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="3" t="s">
         <v>3603</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="3" t="s">
         <v>3604</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3" t="s">
         <v>3605</v>
       </c>
-      <c r="N270" s="1" t="s">
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3" t="s">
         <v>3606</v>
       </c>
-      <c r="O270" s="1" t="s">
+      <c r="O270" s="3" t="s">
         <v>3607</v>
       </c>
-    </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
+      <c r="P270" s="3"/>
+      <c r="Q270" s="3"/>
+      <c r="R270" s="3"/>
+      <c r="S270" s="3"/>
+      <c r="T270" s="3"/>
+      <c r="U270" s="3"/>
+      <c r="V270" s="3"/>
+      <c r="W270" s="3"/>
+      <c r="X270" s="3"/>
+      <c r="Y270" s="3"/>
+      <c r="Z270" s="3"/>
+      <c r="AA270" s="3"/>
+      <c r="AB270" s="3"/>
+      <c r="AC270" s="3"/>
+      <c r="AD270" s="3"/>
+      <c r="AE270" s="3"/>
+      <c r="AF270" s="3"/>
+      <c r="AG270" s="3"/>
+      <c r="AH270" s="3"/>
+      <c r="AI270" s="3"/>
+      <c r="AJ270" s="3"/>
+      <c r="AK270" s="3"/>
+      <c r="AL270" s="3"/>
+      <c r="AM270" s="3"/>
+      <c r="AN270" s="3"/>
+      <c r="AO270" s="3"/>
+      <c r="AP270" s="3"/>
+      <c r="AQ270" s="3"/>
+      <c r="AR270" s="3"/>
+      <c r="AS270" s="3"/>
+      <c r="AT270" s="3"/>
+      <c r="AU270" s="3"/>
+      <c r="AV270" s="3"/>
+      <c r="AW270" s="3"/>
+      <c r="AX270" s="3"/>
+    </row>
+    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
         <v>3608</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="3" t="s">
         <v>3609</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="3" t="s">
         <v>3610</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="3" t="s">
         <v>3611</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3" t="s">
         <v>3612</v>
       </c>
-      <c r="N271" s="1" t="s">
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3" t="s">
         <v>3613</v>
       </c>
-      <c r="O271" s="1" t="s">
+      <c r="O271" s="3" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+      <c r="R271" s="3"/>
+      <c r="S271" s="3"/>
+      <c r="T271" s="3"/>
+      <c r="U271" s="3"/>
+      <c r="V271" s="3"/>
+      <c r="W271" s="3"/>
+      <c r="X271" s="3"/>
+      <c r="Y271" s="3"/>
+      <c r="Z271" s="3"/>
+      <c r="AA271" s="3"/>
+      <c r="AB271" s="3"/>
+      <c r="AC271" s="3"/>
+      <c r="AD271" s="3"/>
+      <c r="AE271" s="3"/>
+      <c r="AF271" s="3"/>
+      <c r="AG271" s="3"/>
+      <c r="AH271" s="3"/>
+      <c r="AI271" s="3"/>
+      <c r="AJ271" s="3"/>
+      <c r="AK271" s="3"/>
+      <c r="AL271" s="3"/>
+      <c r="AM271" s="3"/>
+      <c r="AN271" s="3"/>
+      <c r="AO271" s="3"/>
+      <c r="AP271" s="3"/>
+      <c r="AQ271" s="3"/>
+      <c r="AR271" s="3"/>
+      <c r="AS271" s="3"/>
+      <c r="AT271" s="3"/>
+      <c r="AU271" s="3"/>
+      <c r="AV271" s="3"/>
+      <c r="AW271" s="3"/>
+      <c r="AX271" s="3"/>
+    </row>
+    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
         <v>3615</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="3" t="s">
         <v>3616</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="3" t="s">
         <v>3617</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="3" t="s">
         <v>3618</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3" t="s">
         <v>3619</v>
       </c>
-      <c r="N272" s="1" t="s">
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3" t="s">
         <v>3620</v>
       </c>
-      <c r="O272" s="1" t="s">
+      <c r="O272" s="3" t="s">
         <v>3621</v>
       </c>
-    </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
+      <c r="S272" s="3"/>
+      <c r="T272" s="3"/>
+      <c r="U272" s="3"/>
+      <c r="V272" s="3"/>
+      <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
+      <c r="Y272" s="3"/>
+      <c r="Z272" s="3"/>
+      <c r="AA272" s="3"/>
+      <c r="AB272" s="3"/>
+      <c r="AC272" s="3"/>
+      <c r="AD272" s="3"/>
+      <c r="AE272" s="3"/>
+      <c r="AF272" s="3"/>
+      <c r="AG272" s="3"/>
+      <c r="AH272" s="3"/>
+      <c r="AI272" s="3"/>
+      <c r="AJ272" s="3"/>
+      <c r="AK272" s="3"/>
+      <c r="AL272" s="3"/>
+      <c r="AM272" s="3"/>
+      <c r="AN272" s="3"/>
+      <c r="AO272" s="3"/>
+      <c r="AP272" s="3"/>
+      <c r="AQ272" s="3"/>
+      <c r="AR272" s="3"/>
+      <c r="AS272" s="3"/>
+      <c r="AT272" s="3"/>
+      <c r="AU272" s="3"/>
+      <c r="AV272" s="3"/>
+      <c r="AW272" s="3"/>
+      <c r="AX272" s="3"/>
+    </row>
+    <row r="273" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
         <v>3622</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" s="3" t="s">
         <v>3623</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="3" t="s">
         <v>3624</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="3" t="s">
         <v>3625</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3" t="s">
         <v>3626</v>
       </c>
-      <c r="N273" s="1" t="s">
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3" t="s">
         <v>3627</v>
       </c>
-      <c r="O273" s="1" t="s">
+      <c r="O273" s="3" t="s">
         <v>3628</v>
       </c>
-    </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
+      <c r="V273" s="3"/>
+      <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
+      <c r="Y273" s="3"/>
+      <c r="Z273" s="3"/>
+      <c r="AA273" s="3"/>
+      <c r="AB273" s="3"/>
+      <c r="AC273" s="3"/>
+      <c r="AD273" s="3"/>
+      <c r="AE273" s="3"/>
+      <c r="AF273" s="3"/>
+      <c r="AG273" s="3"/>
+      <c r="AH273" s="3"/>
+      <c r="AI273" s="3"/>
+      <c r="AJ273" s="3"/>
+      <c r="AK273" s="3"/>
+      <c r="AL273" s="3"/>
+      <c r="AM273" s="3"/>
+      <c r="AN273" s="3"/>
+      <c r="AO273" s="3"/>
+      <c r="AP273" s="3"/>
+      <c r="AQ273" s="3"/>
+      <c r="AR273" s="3"/>
+      <c r="AS273" s="3"/>
+      <c r="AT273" s="3"/>
+      <c r="AU273" s="3"/>
+      <c r="AV273" s="3"/>
+      <c r="AW273" s="3"/>
+      <c r="AX273" s="3"/>
+    </row>
+    <row r="274" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
         <v>3629</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" s="3" t="s">
         <v>3630</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="3" t="s">
         <v>3631</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="3" t="s">
         <v>3632</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3" t="s">
         <v>3633</v>
       </c>
-      <c r="N274" s="1" t="s">
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3" t="s">
         <v>3634</v>
       </c>
-      <c r="O274" s="1" t="s">
+      <c r="O274" s="3" t="s">
         <v>3635</v>
       </c>
-    </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="3"/>
+      <c r="T274" s="3"/>
+      <c r="U274" s="3"/>
+      <c r="V274" s="3"/>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
+      <c r="Y274" s="3"/>
+      <c r="Z274" s="3"/>
+      <c r="AA274" s="3"/>
+      <c r="AB274" s="3"/>
+      <c r="AC274" s="3"/>
+      <c r="AD274" s="3"/>
+      <c r="AE274" s="3"/>
+      <c r="AF274" s="3"/>
+      <c r="AG274" s="3"/>
+      <c r="AH274" s="3"/>
+      <c r="AI274" s="3"/>
+      <c r="AJ274" s="3"/>
+      <c r="AK274" s="3"/>
+      <c r="AL274" s="3"/>
+      <c r="AM274" s="3"/>
+      <c r="AN274" s="3"/>
+      <c r="AO274" s="3"/>
+      <c r="AP274" s="3"/>
+      <c r="AQ274" s="3"/>
+      <c r="AR274" s="3"/>
+      <c r="AS274" s="3"/>
+      <c r="AT274" s="3"/>
+      <c r="AU274" s="3"/>
+      <c r="AV274" s="3"/>
+      <c r="AW274" s="3"/>
+      <c r="AX274" s="3"/>
+    </row>
+    <row r="275" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
         <v>3636</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" s="3" t="s">
         <v>3637</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="3" t="s">
         <v>3638</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" s="3" t="s">
         <v>3639</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3" t="s">
         <v>3640</v>
       </c>
-      <c r="N275" s="1" t="s">
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="3" t="s">
         <v>3641</v>
       </c>
-      <c r="O275" s="1" t="s">
+      <c r="O275" s="3" t="s">
         <v>3642</v>
       </c>
-    </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
+      <c r="S275" s="3"/>
+      <c r="T275" s="3"/>
+      <c r="U275" s="3"/>
+      <c r="V275" s="3"/>
+      <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
+      <c r="Y275" s="3"/>
+      <c r="Z275" s="3"/>
+      <c r="AA275" s="3"/>
+      <c r="AB275" s="3"/>
+      <c r="AC275" s="3"/>
+      <c r="AD275" s="3"/>
+      <c r="AE275" s="3"/>
+      <c r="AF275" s="3"/>
+      <c r="AG275" s="3"/>
+      <c r="AH275" s="3"/>
+      <c r="AI275" s="3"/>
+      <c r="AJ275" s="3"/>
+      <c r="AK275" s="3"/>
+      <c r="AL275" s="3"/>
+      <c r="AM275" s="3"/>
+      <c r="AN275" s="3"/>
+      <c r="AO275" s="3"/>
+      <c r="AP275" s="3"/>
+      <c r="AQ275" s="3"/>
+      <c r="AR275" s="3"/>
+      <c r="AS275" s="3"/>
+      <c r="AT275" s="3"/>
+      <c r="AU275" s="3"/>
+      <c r="AV275" s="3"/>
+      <c r="AW275" s="3"/>
+      <c r="AX275" s="3"/>
+    </row>
+    <row r="276" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
         <v>3643</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" s="3" t="s">
         <v>3644</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="3" t="s">
         <v>3645</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="3" t="s">
         <v>3646</v>
       </c>
-      <c r="G276" s="1" t="s">
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3" t="s">
         <v>3647</v>
       </c>
-      <c r="N276" s="1" t="s">
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3" t="s">
         <v>3648</v>
       </c>
-      <c r="O276" s="1" t="s">
+      <c r="O276" s="3" t="s">
         <v>3649</v>
       </c>
-    </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
+      <c r="S276" s="3"/>
+      <c r="T276" s="3"/>
+      <c r="U276" s="3"/>
+      <c r="V276" s="3"/>
+      <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
+      <c r="Y276" s="3"/>
+      <c r="Z276" s="3"/>
+      <c r="AA276" s="3"/>
+      <c r="AB276" s="3"/>
+      <c r="AC276" s="3"/>
+      <c r="AD276" s="3"/>
+      <c r="AE276" s="3"/>
+      <c r="AF276" s="3"/>
+      <c r="AG276" s="3"/>
+      <c r="AH276" s="3"/>
+      <c r="AI276" s="3"/>
+      <c r="AJ276" s="3"/>
+      <c r="AK276" s="3"/>
+      <c r="AL276" s="3"/>
+      <c r="AM276" s="3"/>
+      <c r="AN276" s="3"/>
+      <c r="AO276" s="3"/>
+      <c r="AP276" s="3"/>
+      <c r="AQ276" s="3"/>
+      <c r="AR276" s="3"/>
+      <c r="AS276" s="3"/>
+      <c r="AT276" s="3"/>
+      <c r="AU276" s="3"/>
+      <c r="AV276" s="3"/>
+      <c r="AW276" s="3"/>
+      <c r="AX276" s="3"/>
+    </row>
+    <row r="277" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
         <v>3650</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" s="3" t="s">
         <v>3651</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="3" t="s">
         <v>3652</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D277" s="3" t="s">
         <v>3653</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3" t="s">
         <v>3654</v>
       </c>
-      <c r="N277" s="1" t="s">
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3" t="s">
         <v>3655</v>
       </c>
-      <c r="O277" s="1" t="s">
+      <c r="O277" s="3" t="s">
         <v>3654</v>
       </c>
-    </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="3"/>
+      <c r="T277" s="3"/>
+      <c r="U277" s="3"/>
+      <c r="V277" s="3"/>
+      <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
+      <c r="Y277" s="3"/>
+      <c r="Z277" s="3"/>
+      <c r="AA277" s="3"/>
+      <c r="AB277" s="3"/>
+      <c r="AC277" s="3"/>
+      <c r="AD277" s="3"/>
+      <c r="AE277" s="3"/>
+      <c r="AF277" s="3"/>
+      <c r="AG277" s="3"/>
+      <c r="AH277" s="3"/>
+      <c r="AI277" s="3"/>
+      <c r="AJ277" s="3"/>
+      <c r="AK277" s="3"/>
+      <c r="AL277" s="3"/>
+      <c r="AM277" s="3"/>
+      <c r="AN277" s="3"/>
+      <c r="AO277" s="3"/>
+      <c r="AP277" s="3"/>
+      <c r="AQ277" s="3"/>
+      <c r="AR277" s="3"/>
+      <c r="AS277" s="3"/>
+      <c r="AT277" s="3"/>
+      <c r="AU277" s="3"/>
+      <c r="AV277" s="3"/>
+      <c r="AW277" s="3"/>
+      <c r="AX277" s="3"/>
+    </row>
+    <row r="278" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="3" t="s">
         <v>3658</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="G278" s="1" t="s">
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3" t="s">
         <v>3660</v>
       </c>
-      <c r="N278" s="1" t="s">
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3" t="s">
         <v>3661</v>
       </c>
-      <c r="O278" s="1" t="s">
+      <c r="O278" s="3" t="s">
         <v>3662</v>
       </c>
-    </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="3"/>
+      <c r="U278" s="3"/>
+      <c r="V278" s="3"/>
+      <c r="W278" s="3"/>
+      <c r="X278" s="3"/>
+      <c r="Y278" s="3"/>
+      <c r="Z278" s="3"/>
+      <c r="AA278" s="3"/>
+      <c r="AB278" s="3"/>
+      <c r="AC278" s="3"/>
+      <c r="AD278" s="3"/>
+      <c r="AE278" s="3"/>
+      <c r="AF278" s="3"/>
+      <c r="AG278" s="3"/>
+      <c r="AH278" s="3"/>
+      <c r="AI278" s="3"/>
+      <c r="AJ278" s="3"/>
+      <c r="AK278" s="3"/>
+      <c r="AL278" s="3"/>
+      <c r="AM278" s="3"/>
+      <c r="AN278" s="3"/>
+      <c r="AO278" s="3"/>
+      <c r="AP278" s="3"/>
+      <c r="AQ278" s="3"/>
+      <c r="AR278" s="3"/>
+      <c r="AS278" s="3"/>
+      <c r="AT278" s="3"/>
+      <c r="AU278" s="3"/>
+      <c r="AV278" s="3"/>
+      <c r="AW278" s="3"/>
+      <c r="AX278" s="3"/>
+    </row>
+    <row r="279" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
         <v>3663</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" s="3" t="s">
         <v>3664</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="3" t="s">
         <v>3665</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D279" s="3" t="s">
         <v>3666</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" s="3" t="s">
         <v>3667</v>
       </c>
-      <c r="F279" s="1" t="s">
+      <c r="F279" s="3" t="s">
         <v>3668</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="G279" s="3" t="s">
         <v>3669</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="H279" s="3" t="s">
         <v>3670</v>
       </c>
-      <c r="I279" s="1" t="s">
+      <c r="I279" s="3" t="s">
         <v>3671</v>
       </c>
-      <c r="J279" s="1" t="s">
+      <c r="J279" s="3" t="s">
         <v>3672</v>
       </c>
-      <c r="K279" s="1" t="s">
+      <c r="K279" s="3" t="s">
         <v>3673</v>
       </c>
-      <c r="L279" s="1" t="s">
+      <c r="L279" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="N279" s="1" t="s">
+      <c r="M279" s="3"/>
+      <c r="N279" s="3" t="s">
         <v>3675</v>
       </c>
-      <c r="O279" s="1" t="s">
+      <c r="O279" s="3" t="s">
         <v>3676</v>
       </c>
-      <c r="P279" s="1" t="s">
+      <c r="P279" s="3" t="s">
         <v>3677</v>
       </c>
-      <c r="R279" s="1" t="s">
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3" t="s">
         <v>3678</v>
       </c>
-      <c r="S279" s="1" t="s">
+      <c r="S279" s="3" t="s">
         <v>3679</v>
       </c>
-    </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+      <c r="T279" s="3"/>
+      <c r="U279" s="3"/>
+      <c r="V279" s="3"/>
+      <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
+      <c r="Y279" s="3"/>
+      <c r="Z279" s="3"/>
+      <c r="AA279" s="3"/>
+      <c r="AB279" s="3"/>
+      <c r="AC279" s="3"/>
+      <c r="AD279" s="3"/>
+      <c r="AE279" s="3"/>
+      <c r="AF279" s="3"/>
+      <c r="AG279" s="3"/>
+      <c r="AH279" s="3"/>
+      <c r="AI279" s="3"/>
+      <c r="AJ279" s="3"/>
+      <c r="AK279" s="3"/>
+      <c r="AL279" s="3"/>
+      <c r="AM279" s="3"/>
+      <c r="AN279" s="3"/>
+      <c r="AO279" s="3"/>
+      <c r="AP279" s="3"/>
+      <c r="AQ279" s="3"/>
+      <c r="AR279" s="3"/>
+      <c r="AS279" s="3"/>
+      <c r="AT279" s="3"/>
+      <c r="AU279" s="3"/>
+      <c r="AV279" s="3"/>
+      <c r="AW279" s="3"/>
+      <c r="AX279" s="3"/>
+    </row>
+    <row r="280" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
         <v>3680</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="3" t="s">
         <v>3681</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="3" t="s">
         <v>3682</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" s="3" t="s">
         <v>3683</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E280" s="3" t="s">
         <v>3684</v>
       </c>
-      <c r="F280" s="1" t="s">
+      <c r="F280" s="3" t="s">
         <v>3685</v>
       </c>
-      <c r="G280" s="1" t="s">
+      <c r="G280" s="3" t="s">
         <v>3686</v>
       </c>
-      <c r="H280" s="1" t="s">
+      <c r="H280" s="3" t="s">
         <v>3687</v>
       </c>
-      <c r="I280" s="1" t="s">
+      <c r="I280" s="3" t="s">
         <v>3688</v>
       </c>
-      <c r="J280" s="1" t="s">
+      <c r="J280" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="K280" s="1" t="s">
+      <c r="K280" s="3" t="s">
         <v>3690</v>
       </c>
-      <c r="L280" s="1" t="s">
+      <c r="L280" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="N280" s="1" t="s">
+      <c r="M280" s="3"/>
+      <c r="N280" s="3" t="s">
         <v>3692</v>
       </c>
-      <c r="O280" s="1" t="s">
+      <c r="O280" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="P280" s="1" t="s">
+      <c r="P280" s="3" t="s">
         <v>3694</v>
       </c>
-      <c r="R280" s="1" t="s">
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3" t="s">
         <v>3695</v>
       </c>
-      <c r="S280" s="1" t="s">
+      <c r="S280" s="3" t="s">
         <v>3696</v>
       </c>
-      <c r="Z280" s="1" t="s">
+      <c r="T280" s="3"/>
+      <c r="U280" s="3"/>
+      <c r="V280" s="3"/>
+      <c r="W280" s="3"/>
+      <c r="X280" s="3"/>
+      <c r="Y280" s="3"/>
+      <c r="Z280" s="3" t="s">
         <v>6845</v>
       </c>
-      <c r="AK280" s="1" t="s">
+      <c r="AA280" s="3"/>
+      <c r="AB280" s="3"/>
+      <c r="AC280" s="3"/>
+      <c r="AD280" s="3"/>
+      <c r="AE280" s="3"/>
+      <c r="AF280" s="3"/>
+      <c r="AG280" s="3"/>
+      <c r="AH280" s="3"/>
+      <c r="AI280" s="3"/>
+      <c r="AJ280" s="3"/>
+      <c r="AK280" s="3" t="s">
         <v>6846</v>
       </c>
-    </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
+      <c r="AL280" s="3"/>
+      <c r="AM280" s="3"/>
+      <c r="AN280" s="3"/>
+      <c r="AO280" s="3"/>
+      <c r="AP280" s="3"/>
+      <c r="AQ280" s="3"/>
+      <c r="AR280" s="3"/>
+      <c r="AS280" s="3"/>
+      <c r="AT280" s="3"/>
+      <c r="AU280" s="3"/>
+      <c r="AV280" s="3"/>
+      <c r="AW280" s="3"/>
+      <c r="AX280" s="3"/>
+    </row>
+    <row r="281" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" s="3" t="s">
         <v>3698</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="3" t="s">
         <v>3699</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D281" s="3" t="s">
         <v>3700</v>
       </c>
-      <c r="G281" s="1" t="s">
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3" t="s">
         <v>3701</v>
       </c>
-      <c r="N281" s="1" t="s">
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3" t="s">
         <v>3702</v>
       </c>
-      <c r="O281" s="1" t="s">
+      <c r="O281" s="3" t="s">
         <v>3703</v>
       </c>
-    </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="3"/>
+      <c r="T281" s="3"/>
+      <c r="U281" s="3"/>
+      <c r="V281" s="3"/>
+      <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
+      <c r="Y281" s="3"/>
+      <c r="Z281" s="3"/>
+      <c r="AA281" s="3"/>
+      <c r="AB281" s="3"/>
+      <c r="AC281" s="3"/>
+      <c r="AD281" s="3"/>
+      <c r="AE281" s="3"/>
+      <c r="AF281" s="3"/>
+      <c r="AG281" s="3"/>
+      <c r="AH281" s="3"/>
+      <c r="AI281" s="3"/>
+      <c r="AJ281" s="3"/>
+      <c r="AK281" s="3"/>
+      <c r="AL281" s="3"/>
+      <c r="AM281" s="3"/>
+      <c r="AN281" s="3"/>
+      <c r="AO281" s="3"/>
+      <c r="AP281" s="3"/>
+      <c r="AQ281" s="3"/>
+      <c r="AR281" s="3"/>
+      <c r="AS281" s="3"/>
+      <c r="AT281" s="3"/>
+      <c r="AU281" s="3"/>
+      <c r="AV281" s="3"/>
+      <c r="AW281" s="3"/>
+      <c r="AX281" s="3"/>
+    </row>
+    <row r="282" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
         <v>3704</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="3" t="s">
         <v>3705</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="3" t="s">
         <v>3706</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" s="3" t="s">
         <v>3707</v>
       </c>
-      <c r="G282" s="1" t="s">
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3" t="s">
         <v>3706</v>
       </c>
-      <c r="N282" s="1" t="s">
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3" t="s">
         <v>3708</v>
       </c>
-      <c r="O282" s="1" t="s">
+      <c r="O282" s="3" t="s">
         <v>3709</v>
       </c>
-    </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+      <c r="Y282" s="3"/>
+      <c r="Z282" s="3"/>
+      <c r="AA282" s="3"/>
+      <c r="AB282" s="3"/>
+      <c r="AC282" s="3"/>
+      <c r="AD282" s="3"/>
+      <c r="AE282" s="3"/>
+      <c r="AF282" s="3"/>
+      <c r="AG282" s="3"/>
+      <c r="AH282" s="3"/>
+      <c r="AI282" s="3"/>
+      <c r="AJ282" s="3"/>
+      <c r="AK282" s="3"/>
+      <c r="AL282" s="3"/>
+      <c r="AM282" s="3"/>
+      <c r="AN282" s="3"/>
+      <c r="AO282" s="3"/>
+      <c r="AP282" s="3"/>
+      <c r="AQ282" s="3"/>
+      <c r="AR282" s="3"/>
+      <c r="AS282" s="3"/>
+      <c r="AT282" s="3"/>
+      <c r="AU282" s="3"/>
+      <c r="AV282" s="3"/>
+      <c r="AW282" s="3"/>
+      <c r="AX282" s="3"/>
+    </row>
+    <row r="283" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
         <v>3710</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" s="3" t="s">
         <v>3711</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="3" t="s">
         <v>3712</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D283" s="3" t="s">
         <v>3713</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="E283" s="3" t="s">
         <v>3714</v>
       </c>
-      <c r="F283" s="1" t="s">
+      <c r="F283" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="G283" s="1" t="s">
+      <c r="G283" s="3" t="s">
         <v>3716</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="H283" s="3" t="s">
         <v>3717</v>
       </c>
-      <c r="I283" s="1" t="s">
+      <c r="I283" s="3" t="s">
         <v>3718</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="J283" s="3" t="s">
         <v>3719</v>
       </c>
-      <c r="K283" s="1" t="s">
+      <c r="K283" s="3" t="s">
         <v>3720</v>
       </c>
-      <c r="L283" s="1" t="s">
+      <c r="L283" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="N283" s="1" t="s">
+      <c r="M283" s="3"/>
+      <c r="N283" s="3" t="s">
         <v>3722</v>
       </c>
-      <c r="O283" s="1" t="s">
+      <c r="O283" s="3" t="s">
         <v>3723</v>
       </c>
-      <c r="P283" s="1" t="s">
+      <c r="P283" s="3" t="s">
         <v>3724</v>
       </c>
-      <c r="R283" s="1" t="s">
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3" t="s">
         <v>3725</v>
       </c>
-      <c r="S283" s="1" t="s">
+      <c r="S283" s="3" t="s">
         <v>3726</v>
       </c>
-      <c r="AB283" s="1" t="s">
+      <c r="T283" s="3"/>
+      <c r="U283" s="3"/>
+      <c r="V283" s="3"/>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
+      <c r="Y283" s="3"/>
+      <c r="Z283" s="3"/>
+      <c r="AA283" s="3"/>
+      <c r="AB283" s="3" t="s">
         <v>6847</v>
       </c>
-    </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
+      <c r="AC283" s="3"/>
+      <c r="AD283" s="3"/>
+      <c r="AE283" s="3"/>
+      <c r="AF283" s="3"/>
+      <c r="AG283" s="3"/>
+      <c r="AH283" s="3"/>
+      <c r="AI283" s="3"/>
+      <c r="AJ283" s="3"/>
+      <c r="AK283" s="3"/>
+      <c r="AL283" s="3"/>
+      <c r="AM283" s="3"/>
+      <c r="AN283" s="3"/>
+      <c r="AO283" s="3"/>
+      <c r="AP283" s="3"/>
+      <c r="AQ283" s="3"/>
+      <c r="AR283" s="3"/>
+      <c r="AS283" s="3"/>
+      <c r="AT283" s="3"/>
+      <c r="AU283" s="3"/>
+      <c r="AV283" s="3"/>
+      <c r="AW283" s="3"/>
+      <c r="AX283" s="3"/>
+    </row>
+    <row r="284" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
         <v>3727</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="3" t="s">
         <v>3728</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="3" t="s">
         <v>3729</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="3" t="s">
         <v>3730</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3" t="s">
         <v>3731</v>
       </c>
-      <c r="N284" s="1" t="s">
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3" t="s">
         <v>3732</v>
       </c>
-      <c r="O284" s="1" t="s">
+      <c r="O284" s="3" t="s">
         <v>3733</v>
       </c>
-    </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+      <c r="U284" s="3"/>
+      <c r="V284" s="3"/>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
+      <c r="Y284" s="3"/>
+      <c r="Z284" s="3"/>
+      <c r="AA284" s="3"/>
+      <c r="AB284" s="3"/>
+      <c r="AC284" s="3"/>
+      <c r="AD284" s="3"/>
+      <c r="AE284" s="3"/>
+      <c r="AF284" s="3"/>
+      <c r="AG284" s="3"/>
+      <c r="AH284" s="3"/>
+      <c r="AI284" s="3"/>
+      <c r="AJ284" s="3"/>
+      <c r="AK284" s="3"/>
+      <c r="AL284" s="3"/>
+      <c r="AM284" s="3"/>
+      <c r="AN284" s="3"/>
+      <c r="AO284" s="3"/>
+      <c r="AP284" s="3"/>
+      <c r="AQ284" s="3"/>
+      <c r="AR284" s="3"/>
+      <c r="AS284" s="3"/>
+      <c r="AT284" s="3"/>
+      <c r="AU284" s="3"/>
+      <c r="AV284" s="3"/>
+      <c r="AW284" s="3"/>
+      <c r="AX284" s="3"/>
+    </row>
+    <row r="285" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="3" t="s">
         <v>3735</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="3" t="s">
         <v>3736</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="E285" s="1" t="s">
+      <c r="E285" s="3" t="s">
         <v>3738</v>
       </c>
-      <c r="F285" s="1" t="s">
+      <c r="F285" s="3" t="s">
         <v>3739</v>
       </c>
-      <c r="G285" s="1" t="s">
+      <c r="G285" s="3" t="s">
         <v>3740</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="H285" s="3" t="s">
         <v>3741</v>
       </c>
-      <c r="I285" s="1" t="s">
+      <c r="I285" s="3" t="s">
         <v>3742</v>
       </c>
-      <c r="J285" s="1" t="s">
+      <c r="J285" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="K285" s="1" t="s">
+      <c r="K285" s="3" t="s">
         <v>3744</v>
       </c>
-      <c r="L285" s="1" t="s">
+      <c r="L285" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="N285" s="1" t="s">
+      <c r="M285" s="3"/>
+      <c r="N285" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="O285" s="1" t="s">
+      <c r="O285" s="3" t="s">
         <v>3747</v>
       </c>
-      <c r="P285" s="1" t="s">
+      <c r="P285" s="3" t="s">
         <v>3748</v>
       </c>
-      <c r="R285" s="1" t="s">
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3" t="s">
         <v>3749</v>
       </c>
-      <c r="S285" s="1" t="s">
+      <c r="S285" s="3" t="s">
         <v>3750</v>
       </c>
-      <c r="X285" s="1" t="s">
+      <c r="T285" s="3"/>
+      <c r="U285" s="3"/>
+      <c r="V285" s="3"/>
+      <c r="W285" s="3"/>
+      <c r="X285" s="3" t="s">
         <v>6848</v>
       </c>
-    </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
+      <c r="Y285" s="3"/>
+      <c r="Z285" s="3"/>
+      <c r="AA285" s="3"/>
+      <c r="AB285" s="3"/>
+      <c r="AC285" s="3"/>
+      <c r="AD285" s="3"/>
+      <c r="AE285" s="3"/>
+      <c r="AF285" s="3"/>
+      <c r="AG285" s="3"/>
+      <c r="AH285" s="3"/>
+      <c r="AI285" s="3"/>
+      <c r="AJ285" s="3"/>
+      <c r="AK285" s="3"/>
+      <c r="AL285" s="3"/>
+      <c r="AM285" s="3"/>
+      <c r="AN285" s="3"/>
+      <c r="AO285" s="3"/>
+      <c r="AP285" s="3"/>
+      <c r="AQ285" s="3"/>
+      <c r="AR285" s="3"/>
+      <c r="AS285" s="3"/>
+      <c r="AT285" s="3"/>
+      <c r="AU285" s="3"/>
+      <c r="AV285" s="3"/>
+      <c r="AW285" s="3"/>
+      <c r="AX285" s="3"/>
+    </row>
+    <row r="286" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="3" t="s">
         <v>3752</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="3" t="s">
         <v>3753</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" s="3" t="s">
         <v>3755</v>
       </c>
-      <c r="F286" s="1" t="s">
+      <c r="F286" s="3" t="s">
         <v>3756</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="G286" s="3" t="s">
         <v>3757</v>
       </c>
-      <c r="H286" s="1" t="s">
+      <c r="H286" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="I286" s="1" t="s">
+      <c r="I286" s="3" t="s">
         <v>3759</v>
       </c>
-      <c r="J286" s="1" t="s">
+      <c r="J286" s="3" t="s">
         <v>3760</v>
       </c>
-      <c r="K286" s="1" t="s">
+      <c r="K286" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="L286" s="1" t="s">
+      <c r="L286" s="3" t="s">
         <v>3762</v>
       </c>
-      <c r="N286" s="1" t="s">
+      <c r="M286" s="3"/>
+      <c r="N286" s="3" t="s">
         <v>3763</v>
       </c>
-      <c r="O286" s="1" t="s">
+      <c r="O286" s="3" t="s">
         <v>3764</v>
       </c>
-      <c r="P286" s="1" t="s">
+      <c r="P286" s="3" t="s">
         <v>3765</v>
       </c>
-      <c r="R286" s="1" t="s">
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3" t="s">
         <v>3766</v>
       </c>
-      <c r="S286" s="1" t="s">
+      <c r="S286" s="3" t="s">
         <v>3767</v>
       </c>
-      <c r="AB286" s="1" t="s">
+      <c r="T286" s="3"/>
+      <c r="U286" s="3"/>
+      <c r="V286" s="3"/>
+      <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
+      <c r="Y286" s="3"/>
+      <c r="Z286" s="3"/>
+      <c r="AA286" s="3"/>
+      <c r="AB286" s="3" t="s">
         <v>6849</v>
       </c>
-    </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
+      <c r="AC286" s="3"/>
+      <c r="AD286" s="3"/>
+      <c r="AE286" s="3"/>
+      <c r="AF286" s="3"/>
+      <c r="AG286" s="3"/>
+      <c r="AH286" s="3"/>
+      <c r="AI286" s="3"/>
+      <c r="AJ286" s="3"/>
+      <c r="AK286" s="3"/>
+      <c r="AL286" s="3"/>
+      <c r="AM286" s="3"/>
+      <c r="AN286" s="3"/>
+      <c r="AO286" s="3"/>
+      <c r="AP286" s="3"/>
+      <c r="AQ286" s="3"/>
+      <c r="AR286" s="3"/>
+      <c r="AS286" s="3"/>
+      <c r="AT286" s="3"/>
+      <c r="AU286" s="3"/>
+      <c r="AV286" s="3"/>
+      <c r="AW286" s="3"/>
+      <c r="AX286" s="3"/>
+    </row>
+    <row r="287" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
         <v>3768</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="3" t="s">
         <v>3769</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="3" t="s">
         <v>3770</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D287" s="3" t="s">
         <v>3771</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E287" s="3" t="s">
         <v>3772</v>
       </c>
-      <c r="F287" s="1" t="s">
+      <c r="F287" s="3" t="s">
         <v>3773</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="G287" s="3" t="s">
         <v>3774</v>
       </c>
-      <c r="H287" s="1" t="s">
+      <c r="H287" s="3" t="s">
         <v>3775</v>
       </c>
-      <c r="I287" s="1" t="s">
+      <c r="I287" s="3" t="s">
         <v>3776</v>
       </c>
-      <c r="J287" s="1" t="s">
+      <c r="J287" s="3" t="s">
         <v>3777</v>
       </c>
-      <c r="K287" s="1" t="s">
+      <c r="K287" s="3" t="s">
         <v>3778</v>
       </c>
-      <c r="L287" s="1" t="s">
+      <c r="L287" s="3" t="s">
         <v>3779</v>
       </c>
-      <c r="N287" s="1" t="s">
+      <c r="M287" s="3"/>
+      <c r="N287" s="3" t="s">
         <v>3780</v>
       </c>
-      <c r="O287" s="1" t="s">
+      <c r="O287" s="3" t="s">
         <v>3781</v>
       </c>
-      <c r="P287" s="1" t="s">
+      <c r="P287" s="3" t="s">
         <v>3782</v>
       </c>
-      <c r="R287" s="1" t="s">
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3" t="s">
         <v>3783</v>
       </c>
-      <c r="S287" s="1" t="s">
+      <c r="S287" s="3" t="s">
         <v>3784</v>
       </c>
-      <c r="X287" s="1" t="s">
+      <c r="T287" s="3"/>
+      <c r="U287" s="3"/>
+      <c r="V287" s="3"/>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3" t="s">
         <v>6850</v>
       </c>
-      <c r="Z287" s="1" t="s">
+      <c r="Y287" s="3"/>
+      <c r="Z287" s="3" t="s">
         <v>6851</v>
       </c>
-    </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
+      <c r="AA287" s="3"/>
+      <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
+      <c r="AD287" s="3"/>
+      <c r="AE287" s="3"/>
+      <c r="AF287" s="3"/>
+      <c r="AG287" s="3"/>
+      <c r="AH287" s="3"/>
+      <c r="AI287" s="3"/>
+      <c r="AJ287" s="3"/>
+      <c r="AK287" s="3"/>
+      <c r="AL287" s="3"/>
+      <c r="AM287" s="3"/>
+      <c r="AN287" s="3"/>
+      <c r="AO287" s="3"/>
+      <c r="AP287" s="3"/>
+      <c r="AQ287" s="3"/>
+      <c r="AR287" s="3"/>
+      <c r="AS287" s="3"/>
+      <c r="AT287" s="3"/>
+      <c r="AU287" s="3"/>
+      <c r="AV287" s="3"/>
+      <c r="AW287" s="3"/>
+      <c r="AX287" s="3"/>
+    </row>
+    <row r="288" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
         <v>3785</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="3" t="s">
         <v>3786</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="3" t="s">
         <v>3787</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D288" s="3" t="s">
         <v>3788</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E288" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="F288" s="1" t="s">
+      <c r="F288" s="3" t="s">
         <v>3790</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="G288" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="H288" s="1" t="s">
+      <c r="H288" s="3" t="s">
         <v>3792</v>
       </c>
-      <c r="I288" s="1" t="s">
+      <c r="I288" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="J288" s="1" t="s">
+      <c r="J288" s="3" t="s">
         <v>3794</v>
       </c>
-      <c r="K288" s="1" t="s">
+      <c r="K288" s="3" t="s">
         <v>3795</v>
       </c>
-      <c r="L288" s="1" t="s">
+      <c r="L288" s="3" t="s">
         <v>3796</v>
       </c>
-      <c r="M288" s="1" t="s">
+      <c r="M288" s="3" t="s">
         <v>3797</v>
       </c>
-      <c r="N288" s="1" t="s">
+      <c r="N288" s="3" t="s">
         <v>3798</v>
       </c>
-      <c r="O288" s="1" t="s">
+      <c r="O288" s="3" t="s">
         <v>3799</v>
       </c>
-      <c r="P288" s="1" t="s">
+      <c r="P288" s="3" t="s">
         <v>3800</v>
       </c>
-      <c r="R288" s="1" t="s">
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3" t="s">
         <v>3801</v>
       </c>
-      <c r="S288" s="1" t="s">
+      <c r="S288" s="3" t="s">
         <v>3802</v>
       </c>
-      <c r="X288" s="1" t="s">
+      <c r="T288" s="3"/>
+      <c r="U288" s="3"/>
+      <c r="V288" s="3"/>
+      <c r="W288" s="3"/>
+      <c r="X288" s="3" t="s">
         <v>3796</v>
       </c>
-    </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+      <c r="Y288" s="3"/>
+      <c r="Z288" s="3"/>
+      <c r="AA288" s="3"/>
+      <c r="AB288" s="3"/>
+      <c r="AC288" s="3"/>
+      <c r="AD288" s="3"/>
+      <c r="AE288" s="3"/>
+      <c r="AF288" s="3"/>
+      <c r="AG288" s="3"/>
+      <c r="AH288" s="3"/>
+      <c r="AI288" s="3"/>
+      <c r="AJ288" s="3"/>
+      <c r="AK288" s="3"/>
+      <c r="AL288" s="3"/>
+      <c r="AM288" s="3"/>
+      <c r="AN288" s="3"/>
+      <c r="AO288" s="3"/>
+      <c r="AP288" s="3"/>
+      <c r="AQ288" s="3"/>
+      <c r="AR288" s="3"/>
+      <c r="AS288" s="3"/>
+      <c r="AT288" s="3"/>
+      <c r="AU288" s="3"/>
+      <c r="AV288" s="3"/>
+      <c r="AW288" s="3"/>
+      <c r="AX288" s="3"/>
+    </row>
+    <row r="289" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
         <v>3803</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="3" t="s">
         <v>3804</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="3" t="s">
         <v>3805</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D289" s="3" t="s">
         <v>3806</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="F289" s="1" t="s">
+      <c r="F289" s="3" t="s">
         <v>3808</v>
       </c>
-      <c r="G289" s="1" t="s">
+      <c r="G289" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="H289" s="1" t="s">
+      <c r="H289" s="3" t="s">
         <v>3810</v>
       </c>
-      <c r="I289" s="1" t="s">
+      <c r="I289" s="3" t="s">
         <v>3811</v>
       </c>
-      <c r="J289" s="1" t="s">
+      <c r="J289" s="3" t="s">
         <v>3812</v>
       </c>
-      <c r="K289" s="1" t="s">
+      <c r="K289" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="L289" s="1" t="s">
+      <c r="L289" s="3" t="s">
         <v>3814</v>
       </c>
-      <c r="M289" s="1" t="s">
+      <c r="M289" s="3" t="s">
         <v>3815</v>
       </c>
-      <c r="N289" s="1" t="s">
+      <c r="N289" s="3" t="s">
         <v>3816</v>
       </c>
-      <c r="O289" s="1" t="s">
+      <c r="O289" s="3" t="s">
         <v>3817</v>
       </c>
-      <c r="P289" s="1" t="s">
+      <c r="P289" s="3" t="s">
         <v>3818</v>
       </c>
-      <c r="R289" s="1" t="s">
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3" t="s">
         <v>3819</v>
       </c>
-      <c r="S289" s="1" t="s">
+      <c r="S289" s="3" t="s">
         <v>3820</v>
       </c>
-    </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
+      <c r="T289" s="3"/>
+      <c r="U289" s="3"/>
+      <c r="V289" s="3"/>
+      <c r="W289" s="3"/>
+      <c r="X289" s="3"/>
+      <c r="Y289" s="3"/>
+      <c r="Z289" s="3"/>
+      <c r="AA289" s="3"/>
+      <c r="AB289" s="3"/>
+      <c r="AC289" s="3"/>
+      <c r="AD289" s="3"/>
+      <c r="AE289" s="3"/>
+      <c r="AF289" s="3"/>
+      <c r="AG289" s="3"/>
+      <c r="AH289" s="3"/>
+      <c r="AI289" s="3"/>
+      <c r="AJ289" s="3"/>
+      <c r="AK289" s="3"/>
+      <c r="AL289" s="3"/>
+      <c r="AM289" s="3"/>
+      <c r="AN289" s="3"/>
+      <c r="AO289" s="3"/>
+      <c r="AP289" s="3"/>
+      <c r="AQ289" s="3"/>
+      <c r="AR289" s="3"/>
+      <c r="AS289" s="3"/>
+      <c r="AT289" s="3"/>
+      <c r="AU289" s="3"/>
+      <c r="AV289" s="3"/>
+      <c r="AW289" s="3"/>
+      <c r="AX289" s="3"/>
+    </row>
+    <row r="290" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
         <v>3821</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="3" t="s">
         <v>3822</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="3" t="s">
         <v>3823</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" s="3" t="s">
         <v>3824</v>
       </c>
-      <c r="G290" s="1" t="s">
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3" t="s">
         <v>3825</v>
       </c>
-      <c r="N290" s="1" t="s">
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3" t="s">
         <v>3826</v>
       </c>
-      <c r="O290" s="1" t="s">
+      <c r="O290" s="3" t="s">
         <v>3827</v>
       </c>
-    </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
+      <c r="P290" s="3"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
+      <c r="T290" s="3"/>
+      <c r="U290" s="3"/>
+      <c r="V290" s="3"/>
+      <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
+      <c r="Y290" s="3"/>
+      <c r="Z290" s="3"/>
+      <c r="AA290" s="3"/>
+      <c r="AB290" s="3"/>
+      <c r="AC290" s="3"/>
+      <c r="AD290" s="3"/>
+      <c r="AE290" s="3"/>
+      <c r="AF290" s="3"/>
+      <c r="AG290" s="3"/>
+      <c r="AH290" s="3"/>
+      <c r="AI290" s="3"/>
+      <c r="AJ290" s="3"/>
+      <c r="AK290" s="3"/>
+      <c r="AL290" s="3"/>
+      <c r="AM290" s="3"/>
+      <c r="AN290" s="3"/>
+      <c r="AO290" s="3"/>
+      <c r="AP290" s="3"/>
+      <c r="AQ290" s="3"/>
+      <c r="AR290" s="3"/>
+      <c r="AS290" s="3"/>
+      <c r="AT290" s="3"/>
+      <c r="AU290" s="3"/>
+      <c r="AV290" s="3"/>
+      <c r="AW290" s="3"/>
+      <c r="AX290" s="3"/>
+    </row>
+    <row r="291" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
         <v>3828</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" s="3" t="s">
         <v>3829</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="3" t="s">
         <v>3830</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D291" s="3" t="s">
         <v>3831</v>
       </c>
-      <c r="G291" s="1" t="s">
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3" t="s">
         <v>3832</v>
       </c>
-      <c r="N291" s="1" t="s">
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3" t="s">
         <v>3833</v>
       </c>
-      <c r="O291" s="1" t="s">
+      <c r="O291" s="3" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
+      <c r="V291" s="3"/>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
+      <c r="Y291" s="3"/>
+      <c r="Z291" s="3"/>
+      <c r="AA291" s="3"/>
+      <c r="AB291" s="3"/>
+      <c r="AC291" s="3"/>
+      <c r="AD291" s="3"/>
+      <c r="AE291" s="3"/>
+      <c r="AF291" s="3"/>
+      <c r="AG291" s="3"/>
+      <c r="AH291" s="3"/>
+      <c r="AI291" s="3"/>
+      <c r="AJ291" s="3"/>
+      <c r="AK291" s="3"/>
+      <c r="AL291" s="3"/>
+      <c r="AM291" s="3"/>
+      <c r="AN291" s="3"/>
+      <c r="AO291" s="3"/>
+      <c r="AP291" s="3"/>
+      <c r="AQ291" s="3"/>
+      <c r="AR291" s="3"/>
+      <c r="AS291" s="3"/>
+      <c r="AT291" s="3"/>
+      <c r="AU291" s="3"/>
+      <c r="AV291" s="3"/>
+      <c r="AW291" s="3"/>
+      <c r="AX291" s="3"/>
+    </row>
+    <row r="292" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
         <v>3835</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" s="3" t="s">
         <v>3836</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C292" s="3" t="s">
         <v>3837</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D292" s="3" t="s">
         <v>3838</v>
       </c>
-      <c r="G292" s="1" t="s">
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3" t="s">
         <v>3837</v>
       </c>
-      <c r="N292" s="1" t="s">
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3" t="s">
         <v>3839</v>
       </c>
-      <c r="O292" s="1" t="s">
+      <c r="O292" s="3" t="s">
         <v>3839</v>
       </c>
-    </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="3"/>
+      <c r="U292" s="3"/>
+      <c r="V292" s="3"/>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
+      <c r="Y292" s="3"/>
+      <c r="Z292" s="3"/>
+      <c r="AA292" s="3"/>
+      <c r="AB292" s="3"/>
+      <c r="AC292" s="3"/>
+      <c r="AD292" s="3"/>
+      <c r="AE292" s="3"/>
+      <c r="AF292" s="3"/>
+      <c r="AG292" s="3"/>
+      <c r="AH292" s="3"/>
+      <c r="AI292" s="3"/>
+      <c r="AJ292" s="3"/>
+      <c r="AK292" s="3"/>
+      <c r="AL292" s="3"/>
+      <c r="AM292" s="3"/>
+      <c r="AN292" s="3"/>
+      <c r="AO292" s="3"/>
+      <c r="AP292" s="3"/>
+      <c r="AQ292" s="3"/>
+      <c r="AR292" s="3"/>
+      <c r="AS292" s="3"/>
+      <c r="AT292" s="3"/>
+      <c r="AU292" s="3"/>
+      <c r="AV292" s="3"/>
+      <c r="AW292" s="3"/>
+      <c r="AX292" s="3"/>
+    </row>
+    <row r="293" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
         <v>3840</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" s="3" t="s">
         <v>3841</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C293" s="3" t="s">
         <v>3842</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D293" s="3" t="s">
         <v>3843</v>
       </c>
-      <c r="G293" s="1" t="s">
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3" t="s">
         <v>3844</v>
       </c>
-      <c r="N293" s="1" t="s">
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3" t="s">
         <v>3845</v>
       </c>
-      <c r="O293" s="1" t="s">
+      <c r="O293" s="3" t="s">
         <v>3638</v>
       </c>
-    </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+      <c r="Y293" s="3"/>
+      <c r="Z293" s="3"/>
+      <c r="AA293" s="3"/>
+      <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
+      <c r="AD293" s="3"/>
+      <c r="AE293" s="3"/>
+      <c r="AF293" s="3"/>
+      <c r="AG293" s="3"/>
+      <c r="AH293" s="3"/>
+      <c r="AI293" s="3"/>
+      <c r="AJ293" s="3"/>
+      <c r="AK293" s="3"/>
+      <c r="AL293" s="3"/>
+      <c r="AM293" s="3"/>
+      <c r="AN293" s="3"/>
+      <c r="AO293" s="3"/>
+      <c r="AP293" s="3"/>
+      <c r="AQ293" s="3"/>
+      <c r="AR293" s="3"/>
+      <c r="AS293" s="3"/>
+      <c r="AT293" s="3"/>
+      <c r="AU293" s="3"/>
+      <c r="AV293" s="3"/>
+      <c r="AW293" s="3"/>
+      <c r="AX293" s="3"/>
+    </row>
+    <row r="294" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
         <v>3846</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" s="3" t="s">
         <v>3847</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C294" s="3" t="s">
         <v>3848</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D294" s="3" t="s">
         <v>3849</v>
       </c>
-      <c r="G294" s="1" t="s">
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3" t="s">
         <v>3848</v>
       </c>
-      <c r="N294" s="1" t="s">
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3" t="s">
         <v>3850</v>
       </c>
-      <c r="O294" s="1" t="s">
+      <c r="O294" s="3" t="s">
         <v>3851</v>
       </c>
-    </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+      <c r="Y294" s="3"/>
+      <c r="Z294" s="3"/>
+      <c r="AA294" s="3"/>
+      <c r="AB294" s="3"/>
+      <c r="AC294" s="3"/>
+      <c r="AD294" s="3"/>
+      <c r="AE294" s="3"/>
+      <c r="AF294" s="3"/>
+      <c r="AG294" s="3"/>
+      <c r="AH294" s="3"/>
+      <c r="AI294" s="3"/>
+      <c r="AJ294" s="3"/>
+      <c r="AK294" s="3"/>
+      <c r="AL294" s="3"/>
+      <c r="AM294" s="3"/>
+      <c r="AN294" s="3"/>
+      <c r="AO294" s="3"/>
+      <c r="AP294" s="3"/>
+      <c r="AQ294" s="3"/>
+      <c r="AR294" s="3"/>
+      <c r="AS294" s="3"/>
+      <c r="AT294" s="3"/>
+      <c r="AU294" s="3"/>
+      <c r="AV294" s="3"/>
+      <c r="AW294" s="3"/>
+      <c r="AX294" s="3"/>
+    </row>
+    <row r="295" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
         <v>3852</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" s="3" t="s">
         <v>3853</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="3" t="s">
         <v>3854</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D295" s="3" t="s">
         <v>3855</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3" t="s">
         <v>3856</v>
       </c>
-      <c r="N295" s="1" t="s">
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3" t="s">
         <v>3857</v>
       </c>
-      <c r="O295" s="1" t="s">
+      <c r="O295" s="3" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
+      <c r="Z295" s="3"/>
+      <c r="AA295" s="3"/>
+      <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
+      <c r="AD295" s="3"/>
+      <c r="AE295" s="3"/>
+      <c r="AF295" s="3"/>
+      <c r="AG295" s="3"/>
+      <c r="AH295" s="3"/>
+      <c r="AI295" s="3"/>
+      <c r="AJ295" s="3"/>
+      <c r="AK295" s="3"/>
+      <c r="AL295" s="3"/>
+      <c r="AM295" s="3"/>
+      <c r="AN295" s="3"/>
+      <c r="AO295" s="3"/>
+      <c r="AP295" s="3"/>
+      <c r="AQ295" s="3"/>
+      <c r="AR295" s="3"/>
+      <c r="AS295" s="3"/>
+      <c r="AT295" s="3"/>
+      <c r="AU295" s="3"/>
+      <c r="AV295" s="3"/>
+      <c r="AW295" s="3"/>
+      <c r="AX295" s="3"/>
+    </row>
+    <row r="296" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
         <v>3859</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="3" t="s">
         <v>3860</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="3" t="s">
         <v>3861</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D296" s="3" t="s">
         <v>3862</v>
       </c>
-      <c r="G296" s="1" t="s">
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3" t="s">
         <v>3863</v>
       </c>
-      <c r="N296" s="1" t="s">
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="O296" s="1" t="s">
+      <c r="O296" s="3" t="s">
         <v>3865</v>
       </c>
-    </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
+      <c r="Z296" s="3"/>
+      <c r="AA296" s="3"/>
+      <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
+      <c r="AD296" s="3"/>
+      <c r="AE296" s="3"/>
+      <c r="AF296" s="3"/>
+      <c r="AG296" s="3"/>
+      <c r="AH296" s="3"/>
+      <c r="AI296" s="3"/>
+      <c r="AJ296" s="3"/>
+      <c r="AK296" s="3"/>
+      <c r="AL296" s="3"/>
+      <c r="AM296" s="3"/>
+      <c r="AN296" s="3"/>
+      <c r="AO296" s="3"/>
+      <c r="AP296" s="3"/>
+      <c r="AQ296" s="3"/>
+      <c r="AR296" s="3"/>
+      <c r="AS296" s="3"/>
+      <c r="AT296" s="3"/>
+      <c r="AU296" s="3"/>
+      <c r="AV296" s="3"/>
+      <c r="AW296" s="3"/>
+      <c r="AX296" s="3"/>
+    </row>
+    <row r="297" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
         <v>3866</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="3" t="s">
         <v>3867</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="3" t="s">
         <v>3868</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" s="3" t="s">
         <v>3869</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" s="3" t="s">
         <v>3870</v>
       </c>
-      <c r="F297" s="1" t="s">
+      <c r="F297" s="3" t="s">
         <v>3871</v>
       </c>
-      <c r="G297" s="1" t="s">
+      <c r="G297" s="3" t="s">
         <v>3872</v>
       </c>
-      <c r="H297" s="1" t="s">
+      <c r="H297" s="3" t="s">
         <v>3873</v>
       </c>
-      <c r="I297" s="1" t="s">
+      <c r="I297" s="3" t="s">
         <v>3874</v>
       </c>
-      <c r="J297" s="1" t="s">
+      <c r="J297" s="3" t="s">
         <v>3875</v>
       </c>
-      <c r="K297" s="1" t="s">
+      <c r="K297" s="3" t="s">
         <v>3876</v>
       </c>
-      <c r="L297" s="1" t="s">
+      <c r="L297" s="3" t="s">
         <v>3877</v>
       </c>
-      <c r="N297" s="1" t="s">
+      <c r="M297" s="3"/>
+      <c r="N297" s="3" t="s">
         <v>3878</v>
       </c>
-      <c r="O297" s="1" t="s">
+      <c r="O297" s="3" t="s">
         <v>3879</v>
       </c>
-      <c r="P297" s="1" t="s">
+      <c r="P297" s="3" t="s">
         <v>3880</v>
       </c>
-      <c r="R297" s="1" t="s">
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3" t="s">
         <v>3881</v>
       </c>
-      <c r="S297" s="1" t="s">
+      <c r="S297" s="3" t="s">
         <v>3882</v>
       </c>
-    </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
+      <c r="Z297" s="3"/>
+      <c r="AA297" s="3"/>
+      <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
+      <c r="AD297" s="3"/>
+      <c r="AE297" s="3"/>
+      <c r="AF297" s="3"/>
+      <c r="AG297" s="3"/>
+      <c r="AH297" s="3"/>
+      <c r="AI297" s="3"/>
+      <c r="AJ297" s="3"/>
+      <c r="AK297" s="3"/>
+      <c r="AL297" s="3"/>
+      <c r="AM297" s="3"/>
+      <c r="AN297" s="3"/>
+      <c r="AO297" s="3"/>
+      <c r="AP297" s="3"/>
+      <c r="AQ297" s="3"/>
+      <c r="AR297" s="3"/>
+      <c r="AS297" s="3"/>
+      <c r="AT297" s="3"/>
+      <c r="AU297" s="3"/>
+      <c r="AV297" s="3"/>
+      <c r="AW297" s="3"/>
+      <c r="AX297" s="3"/>
+    </row>
+    <row r="298" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
         <v>3883</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="3" t="s">
         <v>3884</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="3" t="s">
         <v>3885</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="3" t="s">
         <v>3886</v>
       </c>
-      <c r="G298" s="1" t="s">
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3" t="s">
         <v>3887</v>
       </c>
-      <c r="N298" s="1" t="s">
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3" t="s">
         <v>3888</v>
       </c>
-      <c r="O298" s="1" t="s">
+      <c r="O298" s="3" t="s">
         <v>3889</v>
       </c>
-    </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+      <c r="T298" s="3"/>
+      <c r="U298" s="3"/>
+      <c r="V298" s="3"/>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
+      <c r="Y298" s="3"/>
+      <c r="Z298" s="3"/>
+      <c r="AA298" s="3"/>
+      <c r="AB298" s="3"/>
+      <c r="AC298" s="3"/>
+      <c r="AD298" s="3"/>
+      <c r="AE298" s="3"/>
+      <c r="AF298" s="3"/>
+      <c r="AG298" s="3"/>
+      <c r="AH298" s="3"/>
+      <c r="AI298" s="3"/>
+      <c r="AJ298" s="3"/>
+      <c r="AK298" s="3"/>
+      <c r="AL298" s="3"/>
+      <c r="AM298" s="3"/>
+      <c r="AN298" s="3"/>
+      <c r="AO298" s="3"/>
+      <c r="AP298" s="3"/>
+      <c r="AQ298" s="3"/>
+      <c r="AR298" s="3"/>
+      <c r="AS298" s="3"/>
+      <c r="AT298" s="3"/>
+      <c r="AU298" s="3"/>
+      <c r="AV298" s="3"/>
+      <c r="AW298" s="3"/>
+      <c r="AX298" s="3"/>
+    </row>
+    <row r="299" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
         <v>3890</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="3" t="s">
         <v>3891</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="3" t="s">
         <v>3892</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D299" s="3" t="s">
         <v>3893</v>
       </c>
-      <c r="G299" s="1" t="s">
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3" t="s">
         <v>3894</v>
       </c>
-      <c r="N299" s="1" t="s">
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3" t="s">
         <v>3895</v>
       </c>
-      <c r="O299" s="1" t="s">
+      <c r="O299" s="3" t="s">
         <v>3896</v>
       </c>
-    </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
+      <c r="U299" s="3"/>
+      <c r="V299" s="3"/>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
+      <c r="Y299" s="3"/>
+      <c r="Z299" s="3"/>
+      <c r="AA299" s="3"/>
+      <c r="AB299" s="3"/>
+      <c r="AC299" s="3"/>
+      <c r="AD299" s="3"/>
+      <c r="AE299" s="3"/>
+      <c r="AF299" s="3"/>
+      <c r="AG299" s="3"/>
+      <c r="AH299" s="3"/>
+      <c r="AI299" s="3"/>
+      <c r="AJ299" s="3"/>
+      <c r="AK299" s="3"/>
+      <c r="AL299" s="3"/>
+      <c r="AM299" s="3"/>
+      <c r="AN299" s="3"/>
+      <c r="AO299" s="3"/>
+      <c r="AP299" s="3"/>
+      <c r="AQ299" s="3"/>
+      <c r="AR299" s="3"/>
+      <c r="AS299" s="3"/>
+      <c r="AT299" s="3"/>
+      <c r="AU299" s="3"/>
+      <c r="AV299" s="3"/>
+      <c r="AW299" s="3"/>
+      <c r="AX299" s="3"/>
+    </row>
+    <row r="300" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
         <v>3897</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="3" t="s">
         <v>3898</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="3" t="s">
         <v>3899</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D300" s="3" t="s">
         <v>3900</v>
       </c>
-      <c r="G300" s="1" t="s">
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3" t="s">
         <v>3901</v>
       </c>
-      <c r="N300" s="1" t="s">
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3" t="s">
         <v>3902</v>
       </c>
-      <c r="O300" s="1" t="s">
+      <c r="O300" s="3" t="s">
         <v>3903</v>
       </c>
-    </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
+      <c r="Y300" s="3"/>
+      <c r="Z300" s="3"/>
+      <c r="AA300" s="3"/>
+      <c r="AB300" s="3"/>
+      <c r="AC300" s="3"/>
+      <c r="AD300" s="3"/>
+      <c r="AE300" s="3"/>
+      <c r="AF300" s="3"/>
+      <c r="AG300" s="3"/>
+      <c r="AH300" s="3"/>
+      <c r="AI300" s="3"/>
+      <c r="AJ300" s="3"/>
+      <c r="AK300" s="3"/>
+      <c r="AL300" s="3"/>
+      <c r="AM300" s="3"/>
+      <c r="AN300" s="3"/>
+      <c r="AO300" s="3"/>
+      <c r="AP300" s="3"/>
+      <c r="AQ300" s="3"/>
+      <c r="AR300" s="3"/>
+      <c r="AS300" s="3"/>
+      <c r="AT300" s="3"/>
+      <c r="AU300" s="3"/>
+      <c r="AV300" s="3"/>
+      <c r="AW300" s="3"/>
+      <c r="AX300" s="3"/>
+    </row>
+    <row r="301" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
         <v>3904</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="3" t="s">
         <v>3905</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="3" t="s">
         <v>3906</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D301" s="3" t="s">
         <v>3907</v>
       </c>
-      <c r="E301" s="1" t="s">
+      <c r="E301" s="3" t="s">
         <v>3908</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="F301" s="3" t="s">
         <v>3909</v>
       </c>
-      <c r="G301" s="1" t="s">
+      <c r="G301" s="3" t="s">
         <v>3910</v>
       </c>
-      <c r="H301" s="1" t="s">
+      <c r="H301" s="3" t="s">
         <v>3911</v>
       </c>
-      <c r="I301" s="1" t="s">
+      <c r="I301" s="3" t="s">
         <v>3912</v>
       </c>
-      <c r="J301" s="1" t="s">
+      <c r="J301" s="3" t="s">
         <v>3913</v>
       </c>
-      <c r="K301" s="1" t="s">
+      <c r="K301" s="3" t="s">
         <v>3914</v>
       </c>
-      <c r="L301" s="1" t="s">
+      <c r="L301" s="3" t="s">
         <v>3915</v>
       </c>
-      <c r="M301" s="1" t="s">
+      <c r="M301" s="3" t="s">
         <v>3916</v>
       </c>
-      <c r="N301" s="1" t="s">
+      <c r="N301" s="3" t="s">
         <v>3917</v>
       </c>
-      <c r="O301" s="1" t="s">
+      <c r="O301" s="3" t="s">
         <v>3918</v>
       </c>
-      <c r="P301" s="1" t="s">
+      <c r="P301" s="3" t="s">
         <v>3919</v>
       </c>
-      <c r="R301" s="1" t="s">
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3" t="s">
         <v>3920</v>
       </c>
-      <c r="S301" s="1" t="s">
+      <c r="S301" s="3" t="s">
         <v>3921</v>
       </c>
-    </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
+      <c r="T301" s="3"/>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
+      <c r="Y301" s="3"/>
+      <c r="Z301" s="3"/>
+      <c r="AA301" s="3"/>
+      <c r="AB301" s="3"/>
+      <c r="AC301" s="3"/>
+      <c r="AD301" s="3"/>
+      <c r="AE301" s="3"/>
+      <c r="AF301" s="3"/>
+      <c r="AG301" s="3"/>
+      <c r="AH301" s="3"/>
+      <c r="AI301" s="3"/>
+      <c r="AJ301" s="3"/>
+      <c r="AK301" s="3"/>
+      <c r="AL301" s="3"/>
+      <c r="AM301" s="3"/>
+      <c r="AN301" s="3"/>
+      <c r="AO301" s="3"/>
+      <c r="AP301" s="3"/>
+      <c r="AQ301" s="3"/>
+      <c r="AR301" s="3"/>
+      <c r="AS301" s="3"/>
+      <c r="AT301" s="3"/>
+      <c r="AU301" s="3"/>
+      <c r="AV301" s="3"/>
+      <c r="AW301" s="3"/>
+      <c r="AX301" s="3"/>
+    </row>
+    <row r="302" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
         <v>3922</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="3" t="s">
         <v>3923</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="3" t="s">
         <v>3924</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="3" t="s">
         <v>3925</v>
       </c>
-      <c r="G302" s="1" t="s">
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3" t="s">
         <v>3926</v>
       </c>
-      <c r="N302" s="1" t="s">
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3" t="s">
         <v>3927</v>
       </c>
-      <c r="O302" s="1" t="s">
+      <c r="O302" s="3" t="s">
         <v>3928</v>
       </c>
-    </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="3"/>
+      <c r="T302" s="3"/>
+      <c r="U302" s="3"/>
+      <c r="V302" s="3"/>
+      <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
+      <c r="Y302" s="3"/>
+      <c r="Z302" s="3"/>
+      <c r="AA302" s="3"/>
+      <c r="AB302" s="3"/>
+      <c r="AC302" s="3"/>
+      <c r="AD302" s="3"/>
+      <c r="AE302" s="3"/>
+      <c r="AF302" s="3"/>
+      <c r="AG302" s="3"/>
+      <c r="AH302" s="3"/>
+      <c r="AI302" s="3"/>
+      <c r="AJ302" s="3"/>
+      <c r="AK302" s="3"/>
+      <c r="AL302" s="3"/>
+      <c r="AM302" s="3"/>
+      <c r="AN302" s="3"/>
+      <c r="AO302" s="3"/>
+      <c r="AP302" s="3"/>
+      <c r="AQ302" s="3"/>
+      <c r="AR302" s="3"/>
+      <c r="AS302" s="3"/>
+      <c r="AT302" s="3"/>
+      <c r="AU302" s="3"/>
+      <c r="AV302" s="3"/>
+      <c r="AW302" s="3"/>
+      <c r="AX302" s="3"/>
+    </row>
+    <row r="303" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>3929</v>
       </c>
@@ -43894,7 +45518,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>3946</v>
       </c>
